--- a/pandas 코드 정리.xlsx
+++ b/pandas 코드 정리.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joy/Documents/GitHub/0Oong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356C8FCF-FE50-4F4F-B764-24C8B8F31FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394540C0-01EF-844C-BE10-6733EAB5CDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="3" xr2:uid="{F6A1D5C3-528C-E840-B49A-533FDE767A73}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="5" xr2:uid="{F6A1D5C3-528C-E840-B49A-533FDE767A73}"/>
   </bookViews>
   <sheets>
     <sheet name="Pandas 전처리" sheetId="1" r:id="rId1"/>
-    <sheet name="time관련" sheetId="2" r:id="rId2"/>
-    <sheet name="stat" sheetId="3" r:id="rId3"/>
-    <sheet name="stats2" sheetId="4" r:id="rId4"/>
+    <sheet name="기타 코드" sheetId="6" r:id="rId2"/>
+    <sheet name="time관련" sheetId="2" r:id="rId3"/>
+    <sheet name="stat" sheetId="3" r:id="rId4"/>
+    <sheet name="visualization" sheetId="5" r:id="rId5"/>
+    <sheet name="stats2" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="692">
   <si>
     <t>데이터입출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -939,9 +941,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stats.norm.ppf(loc=4, scale=0.8, q=0.5)</t>
-  </si>
-  <si>
     <t>t 밀도함수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,10 +958,6 @@
   </si>
   <si>
     <t>신뢰구간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval = stats.t.interval(alpha=0.95, df=df, loc=mu, scale=se) #alpha는 신뢰수준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1030,6 +1025,3010 @@
   </si>
   <si>
     <t>분산분석(F 검정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib,.pyplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.hist(x, bins=)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.plot(x,y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.bar(x,y, width=, color=)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">seaborn </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.boxplot(x,y,data, color)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.violinplot(x,y,data,color)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.barplot(x,y,data,color)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.pairplot(data,hue,palette)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.regplot(x,y,data,fig_reg=False)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>histgram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatterplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막대그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토그램을 종합해서 구해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러종류의 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형회귀 그림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선형회귀 그림 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.plot()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.column_name.plot(kind='bar')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.plot(kind='hist', bins=10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.plot(x='Close', y='Volume', kind='scatter')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.boxplot(column=['Close'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Series에 사용불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Series에 사용가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.plot(kind='box')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캐터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토그램 종합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(kind='', bins=, color='')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x='', y='', data=, palette=('','')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violine plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df = pd.DataFrame(sample columns=['num']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*bins의 수가 많아질 수록 구간이 세밀해진다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stats.norm </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from scipy import stats
+sample = stats.norm.rvs(loc=10, scale=2, size=10000) 
+#평균 10, 표준편차 2, 샘플 수 1만개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계와 그래프의 접목 - 정규분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. df에 넣을 sample 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.  만든 sample로 df만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 만들어진 df로 통계 그래프 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.subplots()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.subplots()은 figure 및 axes 객체를 포함하는 튜플을 반환하는 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data = pd.Series(np.random.rand(7), index=list('abcdefg')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand값이 7개니까 index이름도 7개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 그래프를 넣는 자리 만들어주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.plot.bar(ax=axes[0], color='r', alpha=0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.plot.bar(ax=axes[1], color='k', alpha=0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha는 투명도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">x, y, alpha, color가 들어갈 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.scatter(x,y,palettte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df.plot(kind='barh', stacked=True, alpha=0.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#가로 막대그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러가지 옵션 주고 그래프그리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.figure(figsize=(8,4))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x, y값 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = np.arange(1,21,2)
+y = np.array([3,5,6,13,30,21,22,29,33,32])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로 * 세로 사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.plot(x,y,color='blue', marker='o', markersize=5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 외양 결정짓기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.title('Lineplot Matplotlib', size=30, font=Times New Roman')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.xlabel('x', size=15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.ylabel('y', size=15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제목 넣기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 축 사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y 축 사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) plt.hist(df_auto.mpg, bins=20, color='hotpink')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계와 그래프의 접목 - plt, 2개의 그래프 통시에 넣고 싶을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.legend(labels=['lineplot'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 그래프를 하나 더 그리고 싶다면 y 값을 하나 더 만들어서 plt.plot(x,y2 ~ 이런식으로 만들면 된다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범례 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개 초과의 그래프 한번에 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.figure(figsize=(10,6))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax1 =fig.add_subplot(2,2,1)
+ax2 =fig.add_subplot(2,2,2)
+ax3 =fig.add_subplot(2,2,3)
+ax4 =fig.add_subplot(2,2,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 크기 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프별 위치 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_subplot(행의 수, 열의 수, index 순)
+2행, 2열의 판에 1,2,3,4번째 위치에 들어간다는 뜻.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax1.hist(x, bins=, color=, alpha=)
+ax2.scatter(x=, y=)
+ax3.bar(x, y, width= )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar의 width는 필수 아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토그램 vs 막대그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt
+np.random.seed(0)
+fig,axes = plt.subplots(2,1) #그래프가 그려지는 (행,열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. 시리즈 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2.np.random으로 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axes[0,0].hist(np.random.randn(100,bins=50)
+axes[0,1].hist(np.random.randn(1000),bins=50)
+axes[1,0].hist(np.random.randn(10000),bins=50)
+axes[1,1].hist(np.random.randn(100000),bins=50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*plt.figure은 크기를 정하는 것이고 plt.subplots는 그래프가 놓여질 행, 열을 결정한다고 생각하면 된다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas 내장 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상, 마커, 선스타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.plot(randn(30).cumsum(), linestyle='dashed', color='hotpink', marker='o')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적합계 cumsm, 예)0,1,2,3이 있다면 0,0+1,0+1+2로 4개 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글폰트는 from matplotlib import rc 
+rc('font', family='AppleGothic') 
+plt.rcParams['axes.unicode_minus'] = False. #글자깨짐방지
+이런식으로 바꿀 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 그래프 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig = plt.figure(figsize=(10,6))
+ax = fig.add_subplot(1,1,1)
+ax.plot(data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 그래프 크기 지정 
+2. 그래프 위치 지정 
+3. 그래프 그리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복기하는데 오래 걸렸던 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>fontsize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'small'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>warnings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">matplotlib </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>rc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>warnings.filterwarnings(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'ignore'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>rc(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'font'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>family</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'AppleGothic'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한글폰트설정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>plt.rcParams[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'axes.unicode_minus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'] =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>fig = plt.figure(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>figsize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ax = fig.add_subplot(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,1,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax.plot(cdata)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ticks=ax.set_xticks([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>750</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>])</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>labels=ax.set_xticklabels([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'one'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'two'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'three'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'four'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'five'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ax.set_ylabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Sum'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ax.set_xlabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Stages'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>ax.set_title(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목, 축이름, 눈금, 눈금 이름 설정'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_xticks : 전체 데이터 범위에 맞춰 눈금을 어디에 배치할지 지정, 250씩 커짐을 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_xticklabels : 눈금 이름을 다르게 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation =30은 x축의 라벨들의 이름을 회전한다는 뜻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_subplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax = fig.add_subplot(1,1,1)
+ax.plot(x, y, '색깔', label='name') 이런식으로도 줄 수 있다.
+Plt.legend(loc='best') #범례를 가장 적절한 위치에 넣어라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색깔 예시) 'm', 'b', 'g'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heatmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.heatmap(data[['name1', 'name2']].corr(), annot=True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seaborn 그래프 총정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목별 개수 세어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue란 범례이름을 지어줄 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.countplot(x='',y='', hue='', data =)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kde는 hist보다 부드러운 형태의 분포 곡선을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hist그래프와 kdeplot을 통합한 그래프로 분포와 밀도를 확인할 수 있다. 
+kde는 hist보다 부드러운 형태의 분포 곡선을 보여줌 
+가로로 표현하기 
+sns.distplot(x, vertical=True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공분산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a = stats.norm(loc=4, scale=0.8)
+a.rvs(size=10) 이것도 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.jointplot(x,y,data,color,kind='reg')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">두 개의 수치형 변수간의 관계를 볼 수 있다. 중앙의 스캐터플롯, 위아래로 히스토그램이 있는게 특징.
+Kind에는 scatter, reg, resid, kde,hex등의 타입을 넣을 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.lmplot(x,y,data,color)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이외에도 hue(범례), makers, scatter_kws(마커 사이즈, scatter의 경우), col(컬럼명), col_wrap(그래프 그릴 열의 최대값) 등이 들어간다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lmplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편분산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.var(data, ddof=1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터의 평균을 0으로, 표준편차(분산)을 1로 하는 변환 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 모든 데이터에서 평균값을 빼기(그럼 평균이 0이 되겠죠?) 
+2. 데이터를 일률적으로 표준편차로 나눠서 표준편차 구하면 1이 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import scipy as sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp.amax(data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp.amin(data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공분산 : x가 증가할 때 Y도 증가하고, X가 감소할 때 Y도 감소하려고 하는 것. 따라서 공분산의 값이 클 수록 X,Y의 의존성이 높다.
+결론 : 공분산은 서로다른 변수들 사이에 얼마나 의존하는지를 수치적으로 표현하며 그것의 직관적 의미는 어떤 변수(X)가 평균으로부터 증가 또는 감소라는 경향을 보일 때, 이러한 경향을 다른 변수가 따라하는 정도를 수치화 한 것이다. 
+1) 공분산 &gt;0 변수 x가 커지면 y도 커짐 
+2) 공분산 &lt;0 변수 x가 작아지면 Y도 작아짐 
+3) 공분산 =0 변수사이에 관계 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array ([[x의 분산, 공분산 
+          공분산, y의분산 ]])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 피어슨적 상관관계에서 상관계수 r은 -1과 1사이의 단위가 없는 값으로 유의성은 p값으로 표기한다. R이 0에 가까울수록 선형관게가 약해진다. 
+* x,y의 공분산/np.sqrt(x의 분산 * y의 분산) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">결과 :
+array([[ 1,     xy의 상관계수],
+       [ xy상관계수  1]])
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예) length_a = df.query("species =='A'")["length"] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.distplot(data, bins=, color=, kde=)
+* norm_hist = True를 지정하면 면적이 1이 되는 히스토그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats.norm.rvs는 정규분포를 따르는 난수생성함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하측활률 : 데이터가 어떤 값 이하가 될 확률 
+퍼센트포인트 : 어떤 확률이 될 기준치 
+예 ) '확률변수 x가 N보다 낮은 확률은 M퍼센트다'에서 N(변수)를 고정하고 M(확률)을 구하는 경우 M이 하측확률. M을 고정하고 N을 구하는경우 N이 퍼센트포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준정규분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균이0, 분산이1인 정규분포로 N(x|0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t = (표본평균-모평균) / (표본의 표준편차/sqrt(샘플사이즈) )
+즉, t = 표본평균-모평균/표준오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">표본평균과 모평균과의 표준적인 차이로, 표본으로부터 얻은 추정량이 얼마나 떨어져 있는지를 나타낸다. 
+이를 통해 평균의 추정치에 대한 불확실도를 수치화하며 
+샘플 사이즈가 커지면 표준 오차는 작아진다. 
+* 표준오차는 표본평균의 표준편차로 볼 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 표준화는 평균을0 분산을 1로 하는 변환으로 '(데이터-평균) / 표준편차'를 계산하는 것 
+따라서 
+'(표본평균-모평균) / 표준오차'는 표본평균에 대한 표준화라고 볼 수 있다.
+* 표준오차는 표본 평균의 표준편차로 볼 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t분포 = t(n)
+t(n)의 분산 = n/n-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">t분포는 모분산을 모르는 상황에서도 표본평균의 분포에 대해 얘기할 수 있다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">interval = stats.t.interval(alpha=0.95, df=df, loc=mu, scale=se) #alpha는 신뢰수준 
+* t분포에서 신뢰수준을 구하는 것이므로(왜냐면 t분포는 모분산을 모르는 상태에서 분포에 대해 얘기하는 것이므로 신뢰가 필요함) scale은 표준편차가 아닌 표준오차인 se를 사용한다고 생각하면 된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats.norm.ppf(loc=4, scale=0.8, q=0.5)
+얘는 하측확률이 50%가 되는 퍼센트포인트를 구하는 것 
+lower = stats.norm.cdf(loc=4,scale=0.8, x=3)
+stats.norm.ppf(loc=4,scale=0.8,q=lower) 
+결과 : 3.0000000
+* cdf, ppf는 역함수 관계이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하측신뢰한계 (95%일때)
+t_975 = ststs.t.ppf(q=0.975, df=df) #97.5% 이하 값 내보내는 것
+lower = mu-t_975*se
+상측신뢰관계 
+upper = mu + t_975 * se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점추정 : mu=sp.mean(fish)에서 나온 표본평균을 통해 모평균을 추정하는 것 
+구간추정 : 추정값이 폭을 가지게 함 
+신뢰계수 : 구간추정의 폭에 대한 신뢰 정도를 확률로 표현 예)95%, 99%
+신뢰구간 : 특정 신뢰계수를 만족하는 구간 
+신뢰한계 : 신뢰구간의 하한값, 상한값으로 하측신뢰한계와 상측신뢰한계라고 함
+*표본의 분산이 크다 -&gt; 데이터가 평균값에서 흩어져 있다 -&gt; 평균값을 신뢰할 수 없게 된다 : 신뢰구간의 폭이 넓다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계적 가설 검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본을 사용해 모집단에 관한 통계적 판단을 내리는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1변량 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 : 평균값, 판단하는 것 : 평균값이 어떤 값과 다른지 얘기할 수 있는지 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유의미한차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해석하면 의미가 있는 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 평균값만으로는 유의미한 차이를 얻을 수 없다. 샘플 사이즈와 데이터의 분산도 봐야한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t검정에서 유의미한 차이가 있다고 간주하는 조건 1) 샘플사이즈가 크다 2) 데이터의 분산이 작다 3) 평균값의 차이가 크다. 결론: t값이 큰지 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">표본과 귀무가설 간의 모순을 나타내는 지표로 작을수록 귀무가설과 표본이 모순된다고 생각할 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유의수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀무가설을 기각하는 기준이 되는 값으로 5%를 사용하는 경우가 많다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단측검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양측검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">예) 봉지과자의 평균중량이 50g과 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다르다는 것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 알아보는 검정 방법</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">예) 봉지과자의 평균중량이 50g보다 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작다는 것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 알아보는 검정 방법</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t표본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번의 표본에서 계산한 t값의 절대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a(알파)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모평균이 50이라고 가정했을 때 t값이 t표본보다 작을 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1-a) *2  여기서 *2의 의미는 양측검정의 의미 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구하는 과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) t_value = (표본평균-비교대상값) / 표준오차 
+2) alpha = stats.t.cdf(t_value, df=df)
+(1-alpha) * 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">t분포의 누적분포함수를 사용하면 모평균을 50 이라고 가정했을 때 t값이 t표본보다 작을 확률을 alpha라고 한다. 
+1-a가 작아지면 t값이 t표본보다 클 확률이 낮다(즉, t표본이 충분히 크다)라는 말이 돼 유의미한 차이를 얻을 수 있게 된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집단의 평균과 귀무가설의 값 간의 유의미한 차이를 찾기 위해 실시함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t값이 표본 t값보다 작을 확률이라는 말은, t분포의 그래프를 떠올렸을 때 표본 t값(이번의 표본에서 계산한 t값의 절대값)의 지점보다 작을 확률을 cdf로 표현할 수 있다는 것 !!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개의 변수 사이에서 평균값에 차이가 있는지 판단 예) 약을 먹기 전과 후의 체온 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stats.ttest_1samp(diff, 0) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#약먹기 전과 후의 차잇값의 평균값이 0과 다른지 t검정함, diff = after-before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats.ttest_rel(after, before)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립표본t검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균값의 차이에 주목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x의 표본평균 - y의 표본평균)/sqrt(x의 불편분산/m + y의 불편분산/n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">2집단 데이터
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(대응표본t검정)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>welch 근사법을 통해 p값 계산 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stats.ttest_ind(after, before, equal_var = False) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*equal_var = False는 분산이 다르다고 가정한 t검정을 시행하겠다고 지정하는 것으로 welch 검정을 채택하는 것임. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P해킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유의미한 차이를 얻기 위해 p값을 자의적으로 변화시키는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카이제곱검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(분할표검정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관측도수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 관측된 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대도수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대되는 도수로 카이제곱검정에서는 기대도수가 전부 5이상이어야 유의미하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>χ² </t>
+  </si>
+  <si>
+    <t>ΣΣ(i행,j열관측도수 - 기대도수)^2/기대도수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*행의시그마 열의 시그마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 누적밀도함수는 양측검정이 아닌, 단측검정이기 때문에 1-a에 2를 곱하지 않는다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할표만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross = pd.pivot_table(data = , values="", aggfunc="", index="", columns="")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats.chi2_contingency(cross, correction=False)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result : 카이제곱 통계량, p값, 자유도, 기대도수 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정결과해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">p값만 보고 실험 결과를 해석하는 것은 위험하다. 원래 데이터의 평균값을 확인하거나 상자그림 or 바이올린플롯을 활용해 실제와 해석의 차이를 줄이도록 해야한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1종오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀무가설이 참임에도 귀무가설을 기각하는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2종오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀무가설이 거짓임에도 귀무가설을 채택하는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수/종쇽변수의 범주간의 연관성 분석, 두 변수가 관련될 가능성, 여부를 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정의비대칭성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">제2종 오류가 일어날 확률, 즉 귀무가설이 거짓임에도 실수하여 귀무가설을 채택할 확률은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계적가설검증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 컨트롤할 수 없다. 1종오류만 컨트롤 가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현실세계의 이해와 예측에 활용 가능, 복잡한 세계를 위한 단순한 모델 구축이 중요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">분석의 목적에 맞춰서 작성하는 모델과 주목하는 관점을 바꾸는 것이 가능하다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 - sp.stats.chi2.cdf(x=6.667, df=1)               *자유도가 1, χ² 가 6.667이 나왔을 때  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>즉, 1-a를 한 것임, 위의 p값 내용들 참고</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상을 수식으로 표현한 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 맥주매상(만원) = 20 + 4 * 기온(도씨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리모델 중 특히 확률적인 표현이 있는 모델 예) 맥주매상~N(20+4*기온, 분산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터에 적합하게 구축된 확률모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 맥주매상~N(10+5*기온, 분산)으로 조사 후 확률모델의 결과와 다르다는 것을 알고 확률모델의 구조를 생각하여 데이터에 적합하게 파라미터를 조정해 구축한 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계모델을 사용하면 확률분포의 모수(파라미터)의 변화 패턴을 명확히 할 수 있다. 또한 예측 가능 -&gt; 통계모델은 현대 데이터 분석의 표준 도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계모델만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">종속변수 - 맥주매상 / 독립변수 - 기온, 날씨, 맥주가격         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">확률모델 표기법 : '종속변수 ~ 독립변수' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라메트릭모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논파라메트릭모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능한 한 현상을 단순화해서 소수의 파라미터만 사용하는 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수의 파라미터만 사용한다는 방침을 취하지 않는 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속변수와 독립변수의 관계를 선형으로 보는 모델   예)맥주 매상과 기온의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수와 가중치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 모델의 파라미터 : 계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 맥주매상 ~ N(B0+B1 * 기온, 분산), B0=절편, B1=회귀계수, B0,B1모두 파라미터이므로 계수임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-&gt; 머신러닝 : 가중치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =모델 구조 정하기 + 파라미터 추정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">예) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>모델의 구조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : '기온이 변화하면 맥주 매상이 증가하거나 감소한다', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>파라미터 추정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : '기온이 1도씨 오르면 맥주 매상이 x만원 증가한다'의 x만원 추정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형모델구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형모델임을 가정했을 때 모델의 구조를 바꾸는 법 1)모델에 사용되는 독립변수 바꾸기 2)데이터가 따르는 확률분포 바꾸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델에 사용될 독립변수를 고르는 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수가 없는 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정을이용한 변수 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥주매상~N(B0 + B1 * 기온, 분산) , 귀무가설 : 독립변수의 계수 B1은 0이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아카이케 정보 기준, 작을수록 좋은 모델이라 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">추정한 모델을 무조건 신뢰하는 것은 위험하므로 추정한 모델을 평가해야 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모델 구조 및 세부사항 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규선형모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속변수가 정규분포를 따르는 것을 가정한 선형모델, -무한 ~ +무한의 범위를 갖는 연속형 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중회귀분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀분석 중에서 독립변수가 여러개 있는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">단일회귀분석 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수가 1개인 회귀분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정규선형모델 중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 독립변수가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연속형 변수인 모델</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정규선형모델 중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 독립변수가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카테고리형 변수인 모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 분산분석은 검정의 방법으로 더 많이 쓰이기 때문에 앞으로는 검정방법으로만 부르겠음. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반선형모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">종속변수가 따르는 확률분포를 정규분포 이외의 분포에도 사용가능하게 한 선형모델 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라미터 추정 : 우도의 최대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파라미터가 정해져 있을 때 표본을 얻을 수 있는 확률(밀도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 앞이 나올 확률이 1/2인 동전을 2번 던져  앞, 뒤 한번씩 나온 표본이 있을 때, 이 표본을 얻을 수 있는 확률은 1/2*1/2=1/4의 우도를 갖는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수가 1개만 있는 정규선형모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>statsmodels.formula.api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>smf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">statsmodels.api </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 데이터 읽기 2) 그래프를 그려 데이터의 특징 보기 예) sns.jointplot(x="temperature", y="beer", data=beer, color='black')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 모델구축 예) 맥주매상~N(B0 + B1 * 기온, 분산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; 이를통해 현상을 해석하고, 예측이 가능해진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 정규선형모델구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_model =smf.ols(formula ="beer ~ temperature", data=beer).fit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ols는 범용최소제곱법의 약자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_model.summary()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dep.variable : 종속변수 이름. Dep은 Depended의 약자로 종속변수라는 뜻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.Observations : 샘플사이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Df Residuals : 샘플 사이즈에서 추정된 파라미터 수를 뺀 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Df Model : 사용된 독립변수의 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Covariance Type : 공분산 타입, 특별히 지정하지 않으면 nonrobust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-squared, Adj.R-squared : 결정계수와 자유도 조정이 끝난 결정계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-static, Prob(F-statistic) : 분산분석 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIC를 이용한 모델 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 독립변수가 1개밖에 없기 때문에 Null 모델의 AIC와 기온이라는 독립변수가 들어간 모델의 AIC를 비교하는 작업을 해본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null_model =smf.ols("beer~1", data=beer).fit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null_model.aic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result : 227.9419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_model.aic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result : 208.9090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">독립변수가 있는 모델 쪽이 더 낮은 AIC를 가지고 있기 때문에 독립변수가 있는 쪽의 예측 정확도가 더 높아진다고 판단할 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀직선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델에 의한 종속변수의 추측값을 직선으로 표시, 비선형모델의 경우 회귀 곡선이라고도 부름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sns.lmplot(x = "temperature", y="beer", data=beer,
+               </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">               line_kws     = {"color" : "black"})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               scatter_kws = {"color" : "black"},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음영부분 : 회귀직선의 95% 신뢰구간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_model.predict()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_model.params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추정한 파라미터값으로 계수(temperature)과 절편(intercept)값 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resid=lm_model.resid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔차 : 실제값 - 예측값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지고 있는 데이터에 대해 모델을 적용했을 때의 적합도를 평가한 지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R^2 = Σ(예측치 - 평균값)^2/Σ(종속변수-평균값)^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_model.rsquared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Σ잔차^2 / (종속변수-평균값)^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정된결정계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_model.rsquared_adj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수의 수가 늘어나는 것에 대해 패널티를 적용한 결정계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R^2 = 1-(Σ잔차^2/(N-s-1))/ ((종속변수-평균값)^2/(N-1))   *s는 독립변수의 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-Q 플롯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이론상의 분위점과 실제 데이터의 분위점을 산포도 그래프로 그린 것, Q는 Quantile(분위수)의 약자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig = sm.qqplot(resid, line="s")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">line="s"는 잔차가 정규분포를 따르면 이 선상에 위치한다는 기준을 표시하게 하는 것. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob(Omnibus)와 Prob(JB) : 잔차의 정규성에 대한 검정결과로 p값이 0.05보다 크면 잔차가 정규분포를 따른다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Durbin-Watson : 잔차의 자기 상관을 체크하는 지표로 2전후라면 문제가 없음. 특히 시계열 데이터를 대상으로 분석하는 경우 반드시 확인해야 함. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정규선형모델에서 폭넓세 이용되는 검정 방법으로 평균값의 차이를 검정하는 방법, 평균값의 차이 검정이라하면 t검정을 사용하는 것이 간단하지만 단순히 t검정을 사용할 수 없을 대가 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: 세 개 이상의 수준 간의 평균값에 차이가 있는 지 검정할 때, 예) 날씨가 맑음, 비, 흐림이라는 세각지 경우에 매주 매상이 유의미하게 차이가 나는지 분석할 경우 (t검정은 약을 먹기 전후와 같은 두 개의 수준간의 평균값의 차이 검정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조건 : 1) 모집단이 정규분포를 따르는 데이터이고, 2) 수준 사이의 분산값이 다르지 않다는 조건에서 사용가능하다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정의다중성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정을 반복함으로써 유의미한 결과를 얻기 쉬워지는 문제로 1종오류를 저지를 확률이 높아진다. 예) 유의수준 0.005인 검정을 2회 연속으로 하면 1-(0.95*0.95) = 0.0975가 돼 10%에 가까워짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨, 연필의 종류 등과 같은 카테고리형 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 효과 = 날씨에 따른 매상의 변동 / 오차 = 날씨라는 변수를 이용해 설명할 수 없는 맥주 매상의 변동  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(영향의 크기는 분산을 이용해서 정량화 한다. 예)날씨에 따른 매상 변동은 '날씨가 변함에 따른 데이터의 흩어짐 크기'로 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산분석(ANOVA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F비 = 효과의 분산 크기/오차의 분산 크기, F비가 크면 오차에 비해 효과가 크다고 판단 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이올린플롯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이올린플롯을 통해 유의미한 차이를 판정 but 정량적 기준을 이용해 판단할경우 분산분석 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 : 각각의 바이올린은 날씨라는 수준으로 나뉘어 있고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바이올린이 서로 떨어져 있다는 것은 날씨에 따라 매상이 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">크게 변한다는 것을 나타낸다. </t>
+  </si>
+  <si>
+    <t>따라서 바이올린간의 거리가 날씨 효과의 크기가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 나리라도 매상이 일정지 않고 흩어지는데 날씨의 차이의 크기를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오차의 크기로 표현한 것. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군간변동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과의 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군내변동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이올린의 폭, 즉 오차의 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군간변동의 자유도 = 흐림,비,맑음의 3가지 수준 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군내변동의 자유도 = 샘플사이즈수 6 - 수준 3(흐림,비,맑음) = 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군간분산/오차분산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">분산분석에서 데이터의 변동을 오차와 효과로 분리하는데 F비를 사용, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>군간(효과)분산/군내(오차)분산</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원배치 분산분석</t>
+  </si>
+  <si>
+    <t>한가지 변수만의 영향을 생각함, 여기서는 날씨의 영향만을 생각해서 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 : 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 : 64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">군간 평균제곱(분산) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨에의한 영향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> effect = [7,7,3,3,11,11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군간제곱합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mu_effect =sp.mean(effect), squares_model = sp.sum((effect - mu_effect)**2)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resid = weather_beer.beer - effect (날씨에 의한 영향의 기대값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군내제곱합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squares_resid = sp.sum(resid**2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variance_model = squares_model / df_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군간변동의 자유도 df_model = 2, 군내변동의 자유도 df_resid=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 : 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군내 평균제곱(분산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variance_resid = squares_resid / df_resid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 : 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variance_model / variance_resid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 : 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-stats.f.cdf(x=f_ration, dfn=df_model, dfd=df_resid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반선형모델 분산분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥주매상~N(B0 + B1*비 + B2*맑음, 분산) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리형 변수를 모델에 넣을 때 사용, 1,0으로 바꿔줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statsmodels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anova_model = smf.ols("beer~weather", data=weather_beer).fit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm.stats.anova_lm(anova_model, typ =2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산분석표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum_sq : 편차제곱합, df : 자유도, F비, p값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anova_model.fittedvalues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anova_model.resid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각 모델의 자유도, 잔차의 자유도라고 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수가 여럿인 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프로 데이터 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.pairplot(data = sales, hue ="weather", palette = "gray")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수간의 관계 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.lmplot(x="price", y="sales", data=sales, hue="weather", palette='gray')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*hue는 범례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위의 결과는 반대로 가격이 높아지면 매상이 줄어드는 것처럼 보인다. 이렇게 데이터에 일반적인 검정을 실시하는 것은 위험하다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그래서 맑은 날의 데이터만 사용해서 가격과 매상의 관계를 조사하고 비오는 날의 데이터는 별도로 회귀분석을 할 수 있지만 그러면 검정의 다중성 문제가 발생한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수의 독립변수를 갖는모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm_sales = smf.ols("sales~weather + humidity + tempreature + price")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales.groupby("weather").mean()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 결과를 보면 비오는날(rainy)에 매상(sales)가 떨어졌다. 가격을 인하한 날에도 매상이 떨어지는 것처럼 보임. 하지만 정확한 분석을 위해서는 날씨가 같을 때 상품 가격이 매상에 미치는 영향을 확인해봐야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이때 독립변수의 자리가 바뀌면 검정 결과가 바뀌는 경우가 있는데 이 경우 회귀계수의 t검정을 하면 앞과 같은 문제는 발생하지 않는다. 하지만 검정의 다중성 문제가 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type2 ANOVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수를 넣는 순서를 바꾸어도 검정 결과가 변하지 않는 분산분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) sales~1 + weather + humidity + temperature + price  * 1은 절편을 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">: 분산분석은 독립변수를 1개씩 늘려나가며, 독릷변수가 늘어남으로써 감소했던 잔차제곱합의 크기를 기반으로 독립변수 효과의 크기를 정량화 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_full = smf.ols("sales~weather + humidity + temperature + price", sales).fit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm.stats.anova_lm(mod_full, typ=2).round(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*이해가 잘 안됨. 그냥 anoval typ2 쓰면 된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 변수가 유의미한지를 알기 위해서는, 모든 독립변수가 들어있는 모델과 독립변수를 하나씩 뺀 모델들을 만들어서 AIC를 비교해보면 된다. (AIC가 낮을수록 더 좋은 모델이기 때문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규분포 이외의 확률분포를 사용할 수 있다는 특징을 갖고 있으며 그렇기 때문에 이항분포, 포아송 분포 등 일반선형모델과 관계가 깊은 확률분포를 아래에 알아볼 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항확률변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개의 값만 가지는 확률변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베르누이 시행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2종류의 결과 중 하나만 발생시키는 시행 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 동전을 한 번 던져서 앞이 나올지 뒤가 나올지 기록하는 시행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베르누이 분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2종류의 결과 중 어느 한쪽의 결과를 얻을 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한 번의 베르누이 시행이 일어날 때 이항확률변수가 따르는 확률분포 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예) 동전을 던져 앞은 1 뒤는 0으로 기록, X는 이항확률변수, p는 성공확률 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(X=1) = p, P(X=0) = 1-p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공확률이 p면서 N회의 독립 베르누이 시행을 했을 때 성공한 횟수 m이 따르는 이산형 확률분포로 이항분포의 모수(파라미터)는 성공확률 p와 시행횟수 N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">확률변수 m의 기댓값은 Np고 분산은 Np(1-p)로 계산 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항분포의 확률질량함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bin(m|N,p) = nCm * p^m * (1-p)^(N-m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats.binom.pmf(k=1, n=2, p=0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞이 나올 확률이 50%인 동전을 2번 던져서 그중 1번 앞면일 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binomial = stats.binom(n=10, p=0.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># n=10, p=0.02인 이항분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.random.seed(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rvs_binomial=binomial.rvs(size)=10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#난수생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m = np.arange(0,10,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#확률질도함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmf_binomial=binomial.pmf(k=m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sns.distplot(rvs_binomial, bins=m, kde=False, norm_hist = True, color = 'gray') </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">plt.plot(m, pmf_binomial, color = 'black') </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 난수의 히스토그램과 확률질량함수 겹쳐서 그리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,7 +4036,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1079,8 +4078,225 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC586C0"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF569CD6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A9955"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A9955"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="NanumSquareOTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4D5156"/>
+      <name val="Apple SD Gothic Neo"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="NanumSquareOTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,11 +4309,217 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA4AE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4ECF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD4D4D4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top style="medium">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1111,7 +4533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,6 +4557,300 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,6 +4859,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC4ECF3"/>
+      <color rgb="FFD4D4D4"/>
+      <color rgb="FFA0E6F3"/>
+      <color rgb="FFB4F8FF"/>
+      <color rgb="FFFFA4AE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1152,6 +4877,751 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>859320</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>26800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14820</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>27160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="잉크 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C56984-31D2-B144-9783-9CB1425DD44F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="859320" y="14682600"/>
+            <a:ext cx="108000" cy="228960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="잉크 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C56984-31D2-B144-9783-9CB1425DD44F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="850320" y="14673600"/>
+              <a:ext cx="125640" cy="246600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>588960</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>126160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>932040</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>211480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="잉크 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E76FED6-A220-3B49-8403-7B5C64EC83C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="588960" y="14781960"/>
+            <a:ext cx="343080" cy="771120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="잉크 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E76FED6-A220-3B49-8403-7B5C64EC83C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="579960" y="14772964"/>
+              <a:ext cx="360720" cy="788752"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241EB3E3-D543-B14C-ADFF-765C93CAD855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12839700" y="13284200"/>
+          <a:ext cx="4775200" cy="2387600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>169154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>188559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A44062-541F-6243-9298-5E2603D9B5DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18389600" y="22622754"/>
+          <a:ext cx="4559300" cy="2546705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>570240</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>8860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787680</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>151420</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="잉크 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051DA07B-D892-AF4A-9EFC-6B064336097D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8571240" y="24761160"/>
+            <a:ext cx="217440" cy="142560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="잉크 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051DA07B-D892-AF4A-9EFC-6B064336097D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8562600" y="24752520"/>
+              <a:ext cx="235080" cy="160200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698400</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>10300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1609980</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>149880</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="잉크 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8248D9-6E98-F746-9C8B-3A0E77FB696C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8699400" y="24762600"/>
+            <a:ext cx="5750280" cy="2666880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="잉크 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8248D9-6E98-F746-9C8B-3A0E77FB696C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8690400" y="24753600"/>
+              <a:ext cx="5767920" cy="2684520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17400</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>106320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>110640</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>14520</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="잉크 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E73466-B424-0A47-A29E-3BA70B3DC8FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9923400" y="25557120"/>
+            <a:ext cx="93240" cy="136800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="잉크 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E73466-B424-0A47-A29E-3BA70B3DC8FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9914400" y="25548480"/>
+              <a:ext cx="110880" cy="154440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56640</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>148080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1791480</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>29640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="35" name="잉크 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A35BB7-5FC5-CC4A-BAB1-F56E1479CC59}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9962640" y="25598880"/>
+            <a:ext cx="1734840" cy="1024560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="35" name="잉크 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A35BB7-5FC5-CC4A-BAB1-F56E1479CC59}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9953640" y="25590240"/>
+              <a:ext cx="1752480" cy="1042200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352440</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>196680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352800</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>197040</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="36" name="잉크 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39364AE-E09A-3545-8163-5D2BC46959F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8353440" y="28619280"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="잉크 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39364AE-E09A-3545-8163-5D2BC46959F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8344800" y="28610640"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-08-22T16:53:23.842"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'12'17'0,"2"5"0,-4-4 0,6 5 0,-11-7 0,7 0 0,2 7 0,-8-9 0,6 11 0,-7-19 0,-1 9 0,3-14 0,1 2 0,1-3 0,3 0 0,-4 0 0,0 0 0,4 0 0,0 4 0,23-3 0,-8 7 0,2 0 0,-12 2 0,-16 2 0,3-4 0,-4 0 0,-4 0 0,0 0 0,-1 0 0,-6 0 0,6 0 0,-10 4 0,6 0 0,-6 5 0,2-1 0,-15 12 0,7-3 0,-8 5 0,11-7 0,2-7 0,-5 14 0,2-4 0,5 5 0,1-15 0,5-9 0,3-3 0,-2 0 0,7 4 0,-7 4 0,5-3 0,-5-1 0,7-5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-08-22T16:53:31.299"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">953 0 24575,'-54'0'0,"8"0"0,11 7 0,8 3 0,-27 5 0,20 5 0,-21-5 0,22 5 0,-22 2 0,21-6 0,-22 17 0,22-15 0,-4 10 0,9-13 0,14 1 0,-6-6 0,8 5 0,-3-3 0,-7 6 0,6-1 0,-3-2 0,5 0 0,3-3 0,-1 4 0,-2-3 0,0 9 0,-1-12 0,1 9 0,0-4 0,6-5 0,-3 8 0,8-9 0,-3 7 0,2-7 0,-3 2 0,0 1 0,4 0 0,-3 5 0,2-5 0,-3 0 0,0-1 0,3 2 0,-2 3 0,6 0 0,-7 7 0,3-5 0,0 4 0,1-6 0,4 7 0,-3-5 0,2 4 0,-3-9 0,4 2 0,0 26 0,4-1 0,-3 9 0,2-16 0,7 30 0,-7-36 0,10 36 0,-8-51 0,3 4 0,-4-7 0,9 12 0,-7-10 0,4 7 0,-3-10 0,-2 0 0,3 0 0,0 4 0,0-3 0,0 3 0,4-1 0,-3-2 0,8 13 0,-11-8 0,3 9 0,-2-11 0,-2 0 0,7-7 0,0 2 0,7-2 0,-5 0 0,8-1 0,-17 0 0,6-3 0,-7 6 0,4-6 0,-3 10 0,6-6 0,-6 3 0,17 5 0,-12-11 0,19 20 0,-15-19 0,5 17 0,-4-15 0,-10 7 0,6-4 0,-3 4 0,5-3 0,3 2 0,0 1 0,19 6 0,-15-4 0,15 3 0,-19-5 0,-4-3 0,0 3 0,-4-4 0,0-4 0,-3 3 0,2-6 0,-3 6 0,22 5 0,-10-2 0,11 2 0,-11-5 0,-8-3 0,4 4 0,-4 0 0,0 0 0,0-3 0,0-2 0,0 1 0,0-3 0,1 6 0,-1-2 0,0 3 0,0-4 0,-4 3 0,0-2 0,-1 3 0,-2 0 0,6 0 0,-2 0 0,3-3 0,0 2 0,0-6 0,0 6 0,-3-6 0,-2 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1640">938 1653 24575,'-13'32'0,"5"2"0,4 12 0,4-5 0,0-16 0,0-1 0,0-5 0,0-4 0,0-2 0,0-1 0,0 0 0,0 0 0,0-3 0,0 2 0,0-3 0,0 0 0,0 0 0,0 4 0,0-3 0,0 3 0,0-1 0,0 8 0,0-4 0,0 6 0,0-12 0,0 3 0,0 0 0,0-4 0,0 4 0,-25-7 0,5-2 0,-16-3 0,13 0 0,0 0 0,-2 0 0,5 0 0,1 0 0,11 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,4 0 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-08-22T17:26:13.616"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">604 56 24575,'-8'0'0,"-46"-8"0,31 5 0,-35-5 0,22 4 0,8 3 0,-10-8 0,12 9 0,2-9 0,-4 8 0,4-3 0,-5 4 0,11-4 0,-5 3 0,11-2 0,-4 3 0,8 3 0,-4 2 0,7 3 0,-2 0 0,3 3 0,-7 20 0,-17 20 0,7-2 0,-3 5 0,11-30 0,3 9 0,4-14 0,-3 4 0,9-8 0,0-6 0,0 2 0,0-3 0,0 1 0,0-1 0,0 0 0,0-4 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-08-22T17:36:16.180"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'24'0,"0"-1"0,0-7 0,0 0 0,0 21 0,5-10 0,0 11 0,5-1 0,-5-4 0,-1 7 0,0-9 0,0-8 0,13 11 0,-6-13 0,6 14 0,-9-19 0,1 6 0,-1-4 0,1 5 0,11 23 0,-4-16 0,5 18 0,2-7 0,-12-14 0,7 10 0,-8-8 0,40 43 0,13 9 0,-29-37 0,1-1 0,6 10 0,4 6 0,-7-12 0,9-1 0,-29-23 0,-2-9 0,-1 5 0,0-8 0,-2 2 0,-1-1 0,0 0 0,-1-8 0,2 4 0,10-3 0,-6 3 0,6 1 0,-7-1 0,0 0 0,14 1 0,-10-1 0,28 9 0,-21-10 0,16 10 0,11-8 0,-24 1 0,23 2 0,-17-7 0,22 15 0,2-10 0,21 14 0,-21-10 0,9 2 0,12 0 0,-6-8 0,-15-3 0,2-1 0,-11 0 0,0 0-323,-1 0 0,0 0 323,5 1 0,-5 0 0,1 1-11,39-6 11,-29 8 0,-1-6 0,-6 5 0,-23-7 0,14 5 0,-11-4 646,4 3-646,24 3 11,-30-1-11,55 1 0,-26 5 0,23-10 0,0 13 0,-24-13 0,18 6 0,-18-8 0,36 8-860,-9 1 860,9 1 0,-13 5 0,13-13 0,-9 13 0,-21-10 0,1-1 0,26 6 0,-32-2 0,0-1 0,22-6 0,1 14 0,0-13-296,-12 6 296,9-8 0,-20 0 0,8 6 0,-23-4 0,-4 4 0,-11-6 0,-7 0 848,17 0-848,-13 0 308,8 0-308,-7 0 0,-11 0 0,11 0 0,44 0 0,-30 0 0,49 0 0,-35 0 0,29 0 0,-10 0 0,18 0 0,-33 0 0,8 0 0,-12 0 0,26 0 0,-7 0-518,21 0 518,-13 0 0,0 0 0,12 0 0,3 0 0,-1 0 0,-26 0 0,6 0 0,-5 0 0,25 0-768,-37 0 1,1 0 767,0 0 0,1 0 0,5 0 0,2 0 0,4 0 0,1 0 0,-5 0 0,0 0 0,5 0 0,0 0 0,-6 0 0,-1 0 0,-5 0 0,0 0 0,-2 0 0,0 0-483,-6 0 1,1 0 482,5 0 0,0 0 0,-4 0 0,-1 0 0,4 0 0,3 0 0,17 0 0,-1 0 0,-24 0 0,1 0 0,14 0 0,8 0 0,-8 0 0,-12 0 0,-2 0-633,30 0 1,0 0 632,-30 0 0,-2 0 0,2 0 0,-1 0 100,43 0-100,-14 0 0,-3 0 0,-21 0 0,10 0 1357,-25 0-1357,-2 0 977,-12 0-977,11 0 1455,28 0-1455,-7 0 0,-5 0 0,2 0 0,19 0-481,-20 0 1,3 0 480,-8 0 0,2 0 0,30 0 0,3 0 0,-14 0 0,0 0-819,19 0 0,-2 0 819,-27 0 0,-4 0 0,0 0 0,0 0 0,1 0 0,-1 0-526,-4 4 1,-1 0 525,0-3 0,-1 0-336,40 15 336,-11-14 0,-12 5 0,-2-7 0,-1 8 1141,-9-6-1141,-3 10 0,-14-11 0,0 10 1615,2-10-1615,1 10 0,32 7 0,-15-2 410,33 10-410,0-9 0,-9 0 0,8 8 0,-45-14 0,-2 1 0,27 13 0,20-4 0,-23-6 0,24 3 0,-9-1 0,9 0 0,-13 8 0,-22-9 0,0 1 0,32 11 0,-32-12 0,-1 0 0,24 8 0,-12 0 0,9 9 329,-20-10-329,-4-2 0,-3-7 0,-8-2 0,13 5 0,11 7 809,-20-7-809,-2 3 76,0-4-76,-19-6 0,21 6 0,-26-7 0,-1 0 0,-10-4 0,2 2 0,-6-3 0,6 4 0,4 1 0,5 5 0,-3-3 0,8 3 0,-9 0 0,23-1 0,32 40 0,-17-17 0,15 20 0,-21-12 0,-11-11 0,7 4 0,-16-2 0,13 0 0,-19-2 0,25 12 0,-18-8 0,1 1 0,-4-2 0,-9-5 0,3 3 0,-5-8 0,0 6 0,-1-7 0,-2 6 0,4-1 0,-5-5 0,4 4 0,-9-11 0,13 23 0,-9-21 0,5 21 0,3-3 0,-10-3 0,10 3 0,-12-16 0,2-6 0,-3 7 0,0 1 0,1 1 0,2 4 0,-3-11 0,4 12 0,-5-12 0,2 11 0,-2-11 0,4 23 0,-3-20 0,-2 31 0,-3-24 0,0 28 0,4-10 0,3 2 0,-4-6 0,2-11 0,-4-7 0,1 6 0,-3-6 0,8 37 0,-8-22 0,13 23 0,-9-20 0,-1 4 0,5-1 0,-10-2 0,4 0 0,-5-10 0,0 10 0,0 13 0,0-18 0,0 30 0,0-35 0,0 22 0,0-21 0,0 32 0,0-29 0,0 11 0,0-19 0,0 2 0,0 2 0,0-2 0,-4-8 0,-1 7 0,0-14 0,-4 19 0,4-21 0,0 5 0,-5 15 0,-1-10 0,-2 18 0,-2-11 0,-3 12 0,6-16 0,-8 26 0,11-32 0,-11 31 0,10-31 0,-7 10 0,5-16 0,2 4 0,-2-1 0,-2 11 0,4-11 0,-9 11 0,4-5 0,-9 14 0,5-11 0,-9 21 0,11-28 0,-7 21 0,5-16 0,-3 6 0,1 0 0,5-9 0,-1-1 0,8-8 0,-7-1 0,2 10 0,-3-11 0,-3 17 0,4-14 0,-3 9 0,3-11 0,4 0 0,-3 0 0,-5 2 0,-9 15 0,3-8 0,-16 12 0,23-16 0,-11 4 0,7-8 0,-6 14 0,3-14 0,-9 17 0,-1-18 0,12 6 0,-16-10 0,26 3 0,-8-7 0,5 4 0,-5 6 0,0-1 0,-1 1 0,-15 7 0,17-7 0,-21 8 0,18-9 0,3-1 0,-1 1 0,13-8 0,-6 6 0,2-7 0,1 5 0,0-1 0,4-4 0,-10 9 0,7-7 0,-7 4 0,10-3 0,-11 1 0,-14 4 0,6 0 0,-14 4 0,23-6 0,-11 4 0,4-4 0,1 3 0,-17 6 0,20-5 0,-17 7 0,21-13 0,-3 4 0,4-4 0,-13 13 0,2-9 0,-4 9 0,12-12 0,4-1 0,2 0 0,-3 0 0,3 1 0,-2-1 0,6-4 0,-2 3 0,-1-2 0,3-1 0,-3 0 0,4-4 0,-3 3 0,2-2 0,-3 6 0,4-6 0,-4 3 0,0 0 0,-1-4 0,-2 4 0,-4-4 0,-5 5 0,-7-4 0,0 8 0,7-8 0,-6 8 0,6-8 0,-7 8 0,7-4 0,1 1 0,7-3 0,0-3 0,0 4 0,0-3 0,3 2 0,-2-3 0,3 0 0,-5 0 0,1 0 0,-3 0 0,5 0 0,-1 0 0,7 0 0,0 0 0,0 0 0,0 0 0,3 0 0,2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-08-22T17:39:02.440"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">258 1 24575,'-11'0'0,"-2"0"0,1 0 0,-4 0 0,8 0 0,-8 0 0,-18 3 0,16 2 0,-18 7 0,27-3 0,-3 2 0,4-3 0,-4 4 0,3-3 0,1 3 0,1-1 0,3 2 0,-4-1 0,3 0 0,1-4 0,1 0 0,2 0 0,-3 4 0,8 0 0,8 15 0,-3-8 0,7 8 0,-12-15 0,3 0 0,-2 0 0,-1-3 0,0 2 0,-4-3 0,0 4 0,0-3 0,0 3 0,0-4 0,0 0 0,0 0 0,0-4 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-08-22T17:39:10.060"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">40 1 24575,'-8'0'0,"0"0"0,0 0 0,0 0 0,4 3 0,0 2 0,8-1 0,4 0 0,11-4 0,-5 0 0,8 0 0,-10 0 0,4 0 0,1 0 0,5 0 0,3 0 0,17 0 0,16 0 0,2 0 0,21 0 0,-21 0 0,9 0 0,-30 0 0,10 0 0,-30 0 0,18 0 0,-20 0 0,6 0 0,0 4 0,13-2 0,9 2 0,13 2 0,11-4 0,-27 4 0,34-6 0,-46 0 0,25 5 0,-24-4 0,0 4 0,-7-5 0,-5 0 0,-4 0 0,-2 0 0,3 0 0,-4 0 0,4 0 0,3 0 0,6 3 0,-1 2 0,-1-1 0,-7 3 0,7-6 0,1 7 0,7-6 0,0 7 0,14-4 0,-11 6 0,22 1 0,-22-1 0,2 0 0,-7-1 0,9 4 0,-3-3 0,3 3 0,-9-4 0,-11-2 0,23 4 0,-21-3 0,21 3 0,-23-1 0,11-4 0,7 6 0,10 2 0,-1-1 0,10 6 0,-21-5 0,2-2 0,-7 6 0,7-7 0,-2 8 0,32 4 0,-29-2 0,41 2 0,-41-8 0,17 1 0,-23-5 0,-7 5 0,-1-7 0,-7 6 0,7-7 0,1 4 0,12 12 0,3-7 0,0 7 0,-1-6 0,-8-8 0,13 12 0,3-2 0,-7 2 0,2-4 0,-17-2 0,0-6 0,5 8 0,-11-9 0,27 22 0,-9-11 0,25 17 0,-27-16 0,7-3 0,7 19 0,-12-17 0,12 18 0,-19-19 0,-5-1 0,3 6 0,-4-9 0,-5 6 0,10 2 0,25 21 0,-10-9 0,10 13 0,-28-23 0,1 1 0,0-2 0,-2-7 0,-1 0-6784,16 14 6784,-18-12 0,18 11 0,-21-8 0,29 17 0,-24-5 0,24 11 0,-36-15 6784,9 0-6784,-7 12 0,20 7 0,1 12 0,11 5 0,14 11 0,-22-13 0,12 7 0,-20-14 0,-4-13 0,-6-2 0,-4-12 0,4 11 0,-7-8 0,17 34 0,-13-37 0,1 17 0,-6-32 0,-3 0 0,-3 1 0,3-5 0,-5 3 0,-2-6 0,3 3 0,-4-4 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 4 0,0-3 0,0 2 0,0-3 0,0 0 0,0-3 0,0-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-08-22T17:47:34.452"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1453,8 +5923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D7BB82-D596-5744-8BFA-33125B159D27}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A30" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2194,10 +6664,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA9394-B117-BD4E-A902-81AC8C8B40FD}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{69A003B7-3EA7-894C-ACC5-7BC39FAAF665}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA097E0C-8E7D-2740-9810-623D104F04A8}">
   <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2330,12 +6835,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316CE90E-CAB5-914A-8135-1191A61C5281}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2343,322 +6848,2682 @@
     <col min="3" max="3" width="43.5703125" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" customWidth="1"/>
     <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="247">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="D2" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="247">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="19">
+      <c r="E3" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="19">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>368</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>369</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="19">
+    <row r="6" spans="1:6" ht="76">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="38">
-      <c r="A7" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="171">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:6" ht="38">
+      <c r="A8" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>372</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="114">
-      <c r="A9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="19">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="19">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="152">
+    <row r="11" spans="1:6" ht="19">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="38">
+      <c r="A12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="19">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="190">
+      <c r="A14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="114">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="152">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="57">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="57">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="57">
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="57">
+      <c r="B18" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57">
-      <c r="A14" t="s">
+    <row r="19" spans="1:7" ht="57">
+      <c r="A19" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19">
-      <c r="B15" s="1" t="s">
+    <row r="20" spans="1:7" ht="38">
+      <c r="B20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="38">
-      <c r="B16" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="38">
+      <c r="B21" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19">
-      <c r="B17" s="1" t="s">
+    <row r="22" spans="1:7" ht="19">
+      <c r="B22" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="57">
-      <c r="B19" s="1" t="s">
+    <row r="23" spans="1:7" ht="152">
+      <c r="B23" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="38">
-      <c r="B20" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="38">
+      <c r="B24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="38">
-      <c r="A21" s="3" t="s">
+    <row r="25" spans="1:7" ht="38">
+      <c r="A25" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="133">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="38">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="133">
+      <c r="B28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="38">
+      <c r="B29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="209">
+      <c r="B30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="38">
+      <c r="B31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="57">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="38">
-      <c r="B23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="38">
-      <c r="B24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="114">
-      <c r="B25" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="38">
-      <c r="B26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>223</v>
-      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" display="카이제곱 검정" xr:uid="{D14D65BD-6EEE-9F4D-A305-ED9A17C58FE7}"/>
     <hyperlink ref="F1" r:id="rId2" xr:uid="{659B67E5-A6DD-F44B-A858-C7717A097A7C}"/>
     <hyperlink ref="D1" r:id="rId3" xr:uid="{7CD44763-1F44-4D46-9226-565FA385A85F}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{592937E6-9F90-EF4F-A432-2B6844E96705}"/>
+    <hyperlink ref="C1" r:id="rId5" location="404f1893-ae56-43ed-b84c-f6c99f313eca" xr:uid="{B9C84B97-190D-934B-BDC5-D3F6C8EAA9FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCD8FFA-815F-104F-8863-ABFF00BFF5DE}">
-  <dimension ref="A1:L1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0E41FA-5730-8748-A478-8F2F6BA301BE}">
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="95.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="8"/>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="91" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="95">
+      <c r="A17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="76">
+      <c r="B18" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" ht="57">
+      <c r="A25" s="30"/>
+      <c r="B25" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" ht="57">
+      <c r="A26" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="21"/>
+      <c r="B27" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" ht="38">
+      <c r="A28" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="57">
+      <c r="A29" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="76">
+      <c r="B33" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="38">
+      <c r="A34" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="38">
+      <c r="A35" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="76">
+      <c r="A36" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" ht="76">
+      <c r="A37" s="30"/>
+      <c r="B37" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="57">
+      <c r="B41" s="37"/>
+      <c r="C41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="76">
+      <c r="A43" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B43" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="57">
+      <c r="C44" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" t="s">
+        <v>314</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>330</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D57" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D58" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="D59" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B40:B41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{0D44F255-02DD-1F42-9DF9-E3F76C301A21}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{7272920C-7C9A-8141-BE1A-4B5515251AEA}"/>
+    <hyperlink ref="D1" r:id="rId3" xr:uid="{CA7D7FB7-0677-EE42-869D-1FBAA53B7D84}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{3E3A45E9-F6BF-6B44-9A50-C514184CD8B3}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{009E55DF-4C3D-D34B-8DE5-303E05BE836B}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{5DC40173-5A6C-DA4F-A0CC-A5B9B88B92FF}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{3D636727-A5D7-DD49-B0D5-3B6062937961}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCD8FFA-815F-104F-8863-ABFF00BFF5DE}">
+  <dimension ref="A1:S190"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="I143" sqref="I143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>236</v>
-      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="43"/>
+      <c r="B6" s="52"/>
+      <c r="C6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="43"/>
+      <c r="B7" s="52"/>
+      <c r="C7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="43"/>
+      <c r="B8" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="43"/>
+      <c r="B9" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="43"/>
+      <c r="B10" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="43"/>
+      <c r="B11" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="43"/>
+      <c r="B12" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="43"/>
+      <c r="B13" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="43"/>
+      <c r="B14" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="43"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" ht="111" customHeight="1">
+      <c r="A16" s="39"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="34">
+      <c r="A17" s="39"/>
+      <c r="B17" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="39"/>
+      <c r="B18" s="55" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="39" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="55"/>
+      <c r="C19" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="65"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="52"/>
+      <c r="C22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="C24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="52"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>441</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="C28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19">
+      <c r="B29" s="57" t="s">
+        <v>446</v>
+      </c>
+      <c r="C29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>467</v>
+      </c>
+      <c r="D30" s="66"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="52"/>
+      <c r="C31" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="52"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="C36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="C37" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="C38" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="52"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="B40" s="62"/>
+      <c r="C40" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="52"/>
+      <c r="C41" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="63" t="s">
+        <v>466</v>
+      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" t="s">
+        <v>468</v>
+      </c>
+      <c r="E42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="C43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" s="68" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" t="s">
+        <v>472</v>
+      </c>
+      <c r="E44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" s="52"/>
+      <c r="C45" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="C46" t="s">
+        <v>476</v>
+      </c>
+      <c r="F46" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="8"/>
+      <c r="B47" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="C47" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="8"/>
+      <c r="B48" s="70" t="s">
+        <v>479</v>
+      </c>
+      <c r="C48" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="8"/>
+      <c r="B49" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="C49" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="C50" t="s">
+        <v>485</v>
+      </c>
+      <c r="E50" t="s">
+        <v>486</v>
+      </c>
+      <c r="J50" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="41"/>
+      <c r="B51" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="C51" t="s">
+        <v>489</v>
+      </c>
+      <c r="E51" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="41"/>
+      <c r="B52" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="C52" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="41"/>
+      <c r="B53" s="52" t="s">
+        <v>493</v>
+      </c>
+      <c r="C53" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="41"/>
+      <c r="B54" s="52" t="s">
+        <v>495</v>
+      </c>
+      <c r="C54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="52" t="s">
+        <v>497</v>
+      </c>
+      <c r="B55" s="71"/>
+      <c r="C55" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>499</v>
+      </c>
+      <c r="C56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="8"/>
+      <c r="B57" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="C57" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="72" t="s">
+        <v>506</v>
+      </c>
+      <c r="C58" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="C59" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="C60" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="52" t="s">
+        <v>511</v>
+      </c>
+      <c r="C61" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="C62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="51" t="s">
+        <v>516</v>
+      </c>
+      <c r="C63" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B64" s="69"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="B65" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="C65" t="s">
+        <v>520</v>
+      </c>
+      <c r="F65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="59" t="s">
+        <v>506</v>
+      </c>
+      <c r="B66" s="62"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="B67" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="C67" t="s">
+        <v>523</v>
+      </c>
+      <c r="E67" s="73" t="s">
+        <v>524</v>
+      </c>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="I67" s="66"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="B68" s="52"/>
+      <c r="C68" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="B69" s="52"/>
+      <c r="C69" t="s">
+        <v>527</v>
+      </c>
+      <c r="F69" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="52"/>
+      <c r="C70" t="s">
+        <v>529</v>
+      </c>
+      <c r="E70" s="74" t="s">
+        <v>530</v>
+      </c>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="19" thickBot="1">
+      <c r="B71" s="52"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="78" t="s">
+        <v>532</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="77" t="s">
+        <v>533</v>
+      </c>
+      <c r="C72" s="85" t="s">
+        <v>534</v>
+      </c>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="87"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="21"/>
+      <c r="C73" s="88" t="s">
+        <v>535</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="89"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="21"/>
+      <c r="C74" s="88" t="s">
+        <v>536</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="89"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="21"/>
+      <c r="C75" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="89"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="21"/>
+      <c r="C76" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="89"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="B77" s="21"/>
+      <c r="C77" s="88" t="s">
+        <v>539</v>
+      </c>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="89"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="21"/>
+      <c r="C78" s="88" t="s">
+        <v>540</v>
+      </c>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="89"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="21"/>
+      <c r="C79" s="90" t="s">
+        <v>575</v>
+      </c>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="89"/>
+    </row>
+    <row r="80" spans="1:10" ht="19" thickBot="1">
+      <c r="B80" s="21"/>
+      <c r="C80" s="91" t="s">
+        <v>576</v>
+      </c>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="92"/>
+      <c r="I80" s="94"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="52" t="s">
+        <v>541</v>
+      </c>
+      <c r="B81" s="71"/>
+      <c r="C81" s="75" t="s">
+        <v>542</v>
+      </c>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="B82" s="52"/>
+      <c r="C82" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="D82" s="65"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="B83" s="52"/>
+      <c r="C83" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="D83" s="65"/>
+      <c r="E83" s="76" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="B84" s="52"/>
+      <c r="C84" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="D84" s="65"/>
+      <c r="E84" t="s">
+        <v>547</v>
+      </c>
+      <c r="F84" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="B85" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="C85" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="D85" s="82"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="82"/>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="B86" s="52"/>
+      <c r="C86" s="83" t="s">
+        <v>551</v>
+      </c>
+      <c r="D86" s="65"/>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="B87" s="52"/>
+      <c r="C87" s="65" t="s">
+        <v>553</v>
+      </c>
+      <c r="D87" s="65"/>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="B88" s="52"/>
+      <c r="C88" s="65" t="s">
+        <v>552</v>
+      </c>
+      <c r="D88" s="65"/>
+      <c r="E88" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="B89" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="C89" s="65" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="B90" s="52"/>
+      <c r="C90" s="65" t="s">
+        <v>557</v>
+      </c>
+      <c r="D90" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="B91" s="52" t="s">
+        <v>559</v>
+      </c>
+      <c r="C91" s="65" t="s">
+        <v>560</v>
+      </c>
+      <c r="E91" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="B92" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92" s="82" t="s">
+        <v>562</v>
+      </c>
+      <c r="F92" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="B93" s="52"/>
+      <c r="C93" s="65" t="s">
+        <v>564</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G93" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="B94" s="58" t="s">
+        <v>567</v>
+      </c>
+      <c r="C94" s="82" t="s">
+        <v>569</v>
+      </c>
+      <c r="F94" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="B95" s="52"/>
+      <c r="C95" s="65" t="s">
+        <v>568</v>
+      </c>
+      <c r="S95" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="B96" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="C96" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="S96" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="B97" s="52"/>
+      <c r="C97" s="65" t="s">
+        <v>573</v>
+      </c>
+      <c r="D97" s="66"/>
+      <c r="E97" t="s">
+        <v>574</v>
+      </c>
+      <c r="S97" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="B98" s="62"/>
+      <c r="C98" s="82" t="s">
+        <v>577</v>
+      </c>
+      <c r="S98" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="B99" s="52"/>
+      <c r="C99" s="82" t="s">
+        <v>578</v>
+      </c>
+      <c r="S99" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="B100" s="52"/>
+      <c r="C100" s="82" t="s">
+        <v>579</v>
+      </c>
+      <c r="S100" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="19" thickBot="1">
+      <c r="B101" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="C101" s="82" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="B102" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="C102" s="82" t="s">
+        <v>604</v>
+      </c>
+      <c r="H102" s="85" t="s">
+        <v>588</v>
+      </c>
+      <c r="I102" s="86"/>
+      <c r="J102" s="86"/>
+      <c r="K102" s="86" t="s">
+        <v>603</v>
+      </c>
+      <c r="L102" s="86"/>
+      <c r="M102" s="87"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="B103" s="52" t="s">
+        <v>583</v>
+      </c>
+      <c r="C103" s="82" t="s">
+        <v>584</v>
+      </c>
+      <c r="H103" s="96" t="s">
+        <v>585</v>
+      </c>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="89"/>
+    </row>
+    <row r="104" spans="1:19" ht="19" thickBot="1">
+      <c r="B104" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="C104" s="82" t="s">
+        <v>590</v>
+      </c>
+      <c r="H104" s="97" t="s">
+        <v>586</v>
+      </c>
+      <c r="I104" s="92"/>
+      <c r="J104" s="92"/>
+      <c r="K104" s="92"/>
+      <c r="L104" s="92"/>
+      <c r="M104" s="94"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="B105" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="C105" s="82" t="s">
+        <v>598</v>
+      </c>
+      <c r="E105" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="B106" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="C106" s="82" t="s">
+        <v>600</v>
+      </c>
+      <c r="E106" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="B107" s="51"/>
+      <c r="C107" s="82" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="B108" s="58" t="s">
+        <v>610</v>
+      </c>
+      <c r="C108" s="82" t="s">
+        <v>611</v>
+      </c>
+      <c r="E108" s="66" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="B109" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="E109" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="J109" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="B110" s="52" t="s">
+        <v>614</v>
+      </c>
+      <c r="C110" t="s">
+        <v>637</v>
+      </c>
+      <c r="E110" s="84" t="s">
+        <v>615</v>
+      </c>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="J110" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="B111" s="52" t="s">
+        <v>616</v>
+      </c>
+      <c r="E111" s="84" t="s">
+        <v>617</v>
+      </c>
+      <c r="F111" s="19"/>
+      <c r="I111" t="s">
+        <v>619</v>
+      </c>
+      <c r="K111" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="B112" s="99" t="s">
+        <v>609</v>
+      </c>
+      <c r="D112" s="21"/>
+      <c r="E112" s="98" t="s">
+        <v>618</v>
+      </c>
+      <c r="F112" s="19"/>
+      <c r="J112" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="B113" s="100" t="s">
+        <v>621</v>
+      </c>
+      <c r="D113" s="21"/>
+      <c r="E113" s="98" t="s">
+        <v>622</v>
+      </c>
+      <c r="F113" s="19"/>
+      <c r="J113" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="B114" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="E114" s="98" t="s">
+        <v>624</v>
+      </c>
+      <c r="F114" s="19"/>
+      <c r="J114" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="B115" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="C115" s="80" t="s">
+        <v>626</v>
+      </c>
+      <c r="D115" s="66"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="44" t="s">
+        <v>627</v>
+      </c>
+      <c r="B116" s="51"/>
+      <c r="C116" s="81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="B117" s="52" t="s">
+        <v>629</v>
+      </c>
+      <c r="C117" s="81" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="B118" s="52" t="s">
+        <v>631</v>
+      </c>
+      <c r="C118" s="80" t="s">
+        <v>632</v>
+      </c>
+      <c r="D118" s="65"/>
+      <c r="E118" s="65"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="B119" s="52" t="s">
+        <v>634</v>
+      </c>
+      <c r="C119" s="80" t="s">
+        <v>633</v>
+      </c>
+      <c r="D119" s="66"/>
+      <c r="E119" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="44" t="s">
+        <v>639</v>
+      </c>
+      <c r="B120" s="51"/>
+      <c r="C120" s="82"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>640</v>
+      </c>
+      <c r="B121" s="52"/>
+      <c r="C121" s="82" t="s">
+        <v>641</v>
+      </c>
+      <c r="G121" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>642</v>
+      </c>
+      <c r="B122" s="52"/>
+      <c r="C122" s="101" t="s">
+        <v>649</v>
+      </c>
+      <c r="E122" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="B123" s="52"/>
+      <c r="C123" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="G123" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="B124" s="52"/>
+      <c r="G124" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B125" s="52"/>
+      <c r="C125" t="s">
+        <v>648</v>
+      </c>
+      <c r="G125" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>652</v>
+      </c>
+      <c r="B126" s="52"/>
+      <c r="C126" t="s">
+        <v>653</v>
+      </c>
+      <c r="G126" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="B127" s="52"/>
+      <c r="C127" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="B128" s="52"/>
+      <c r="C128" s="65" t="s">
+        <v>656</v>
+      </c>
+      <c r="D128" s="65"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="65"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="B129" s="52"/>
+      <c r="C129" s="65" t="s">
+        <v>657</v>
+      </c>
+      <c r="D129" s="65"/>
+      <c r="G129" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="B130" s="102" t="s">
+        <v>659</v>
+      </c>
+      <c r="C130" s="49" t="s">
+        <v>660</v>
+      </c>
+      <c r="D130" s="49"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="49"/>
+      <c r="I130" s="49"/>
+      <c r="J130" s="49"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="B131" s="52"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="B132" s="62"/>
+      <c r="C132" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="103" t="s">
+        <v>665</v>
+      </c>
+      <c r="B133" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="C133" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="95"/>
+      <c r="B134" s="69" t="s">
+        <v>664</v>
+      </c>
+      <c r="C134" t="s">
+        <v>666</v>
+      </c>
+      <c r="E134" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="95"/>
+      <c r="B135" s="52" t="s">
+        <v>668</v>
+      </c>
+      <c r="C135" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="95"/>
+      <c r="B136" s="69" t="s">
+        <v>669</v>
+      </c>
+      <c r="C136" t="s">
+        <v>671</v>
+      </c>
+      <c r="F136" t="s">
+        <v>672</v>
+      </c>
+      <c r="J136" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="95"/>
+      <c r="B137" s="52" t="s">
+        <v>665</v>
+      </c>
+      <c r="C137" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="B138" s="52"/>
+      <c r="C138" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="52" t="s">
+        <v>676</v>
+      </c>
+      <c r="B139" s="104"/>
+      <c r="C139" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="B140" s="52"/>
+      <c r="C140" t="s">
+        <v>678</v>
+      </c>
+      <c r="E140" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="B141" s="52"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="B142" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="C142" t="s">
+        <v>681</v>
+      </c>
+      <c r="E142" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="B143" s="52"/>
+      <c r="C143" t="s">
+        <v>683</v>
+      </c>
+      <c r="D143" t="s">
+        <v>684</v>
+      </c>
+      <c r="F143" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="B144" s="52"/>
+      <c r="C144" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="D144" t="s">
+        <v>688</v>
+      </c>
+      <c r="F144" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="52"/>
+      <c r="C145" t="s">
+        <v>689</v>
+      </c>
+      <c r="G145" s="105" t="s">
+        <v>691</v>
+      </c>
+      <c r="H145" s="105"/>
+      <c r="I145" s="105"/>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="52"/>
+      <c r="C146" t="s">
+        <v>690</v>
+      </c>
+      <c r="G146" s="105"/>
+      <c r="H146" s="105"/>
+      <c r="I146" s="105"/>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="52"/>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="52"/>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="52"/>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="52"/>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" s="52"/>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="52"/>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="52"/>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" s="52"/>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" s="52"/>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="B156" s="52"/>
+    </row>
+    <row r="157" spans="2:9">
+      <c r="B157" s="52"/>
+    </row>
+    <row r="158" spans="2:9">
+      <c r="B158" s="52"/>
+    </row>
+    <row r="159" spans="2:9">
+      <c r="B159" s="52"/>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="B160" s="52"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="52"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="52"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="52"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="52"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="52"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="52"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="52"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="52"/>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="52"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="52"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="52"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="52"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="52"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="52"/>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="52"/>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="52"/>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="52"/>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="52"/>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="52"/>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="52"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="52"/>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="52"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="52"/>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="52"/>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="52"/>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="52"/>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="52"/>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="52"/>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="52"/>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="52"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G145:I146"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A46:A49"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" display="https://blog.daum.net/_inforu/101" xr:uid="{39C48B6D-72F7-D648-BF7B-19332AB8CB66}"/>
@@ -2672,5 +9537,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/pandas 코드 정리.xlsx
+++ b/pandas 코드 정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joy/Documents/GitHub/0Oong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394540C0-01EF-844C-BE10-6733EAB5CDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFA799F-6F93-D447-BAA1-FB39B48A39E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="5" xr2:uid="{F6A1D5C3-528C-E840-B49A-533FDE767A73}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="6" xr2:uid="{F6A1D5C3-528C-E840-B49A-533FDE767A73}"/>
   </bookViews>
   <sheets>
     <sheet name="Pandas 전처리" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="stat" sheetId="3" r:id="rId4"/>
     <sheet name="visualization" sheetId="5" r:id="rId5"/>
     <sheet name="stats2" sheetId="4" r:id="rId6"/>
+    <sheet name="머신러닝 파라미터 정리" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="872">
   <si>
     <t>데이터입출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,10 +946,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stats.t.pdf(x=x, df=30이하 숫자로 넘어가게되면그냥 z-score쓰는게 낫다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정규분포 N(0,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1157,6 +1154,10 @@
   </si>
   <si>
     <t>violine plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규분포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2485,10 +2486,6 @@
   <si>
     <t>t분포 = t(n)
 t(n)의 분산 = n/n-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">t분포는 모분산을 모르는 상황에서도 표본평균의 분포에 대해 얘기할 수 있다.  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3568,10 +3565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">조건 : 1) 모집단이 정규분포를 따르는 데이터이고, 2) 수준 사이의 분산값이 다르지 않다는 조건에서 사용가능하다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>검정의다중성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3900,10 +3893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어떤 변수가 유의미한지를 알기 위해서는, 모든 독립변수가 들어있는 모델과 독립변수를 하나씩 뺀 모델들을 만들어서 AIC를 비교해보면 된다. (AIC가 낮을수록 더 좋은 모델이기 때문)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3968,10 +3957,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이항분포의 확률질량함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bin(m|N,p) = nCm * p^m * (1-p)^(N-m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4029,6 +4014,1238 @@
   </si>
   <si>
     <t># 난수의 히스토그램과 확률질량함수 겹쳐서 그리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포아송분포 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개 또는 2개, 1회 또는 2회 등의 카운트 데이터가 따르는 이산형확률분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*카운트데이터 : 0이상의 정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* λ는 람다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항분포의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률질량함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시행횟수 N값이 너무 크면 이항분포를 사용할 수 없는데, 이때 이용하는게 
+포아송분포</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⇓</t>
+  </si>
+  <si>
+    <t>p -&gt; 0, N-&gt; 무한, Np= λ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공확률이 한없이 0에 가깝지만 시행횟수가 무한히 많은 이항분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 하루의 교통사상자수를 구할 때 사고에 휘말릴 가능성이 있는 사람의 수 N은 매우 크지만 교통사고를 당할 확률 P는 매우 작음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats.poisson.pmf(k=2, mu=5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 강도가 5인 포아송분포에서 어떤 값(k) 2를 얻는 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np.random.seed(1) stats.poisson.rvs(mu=2, size=5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 강도(λ)가 2인 포아송 분포를 따르는 난수 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poisson = stats.poisson(mu=2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">np.random.seed(1) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rvs_poisson = poisson.rvs(size=10000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># λ = 2인 포아송 분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 난수생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmf_poisson = poisson.pmf(k=m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 확률질량함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.distplot(rvs_poisson, bins=m, kde=False, norm_hist = True, color='gray')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.plot(m, pmf_poisson, color='black')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 난수의 히스토그램과 확률질량함수를 겹쳐서 그리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*이때, 시행횟수를 poisson의 size인 10000 * 1000, 성공확률을 0.00000002로 한 이항분포의 확률질량함수가 거의 일치한다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포아송분포는 모수가 강도(일이 일어날 횟수에 대한 기댓값, 발생강도) λ밖에 없으며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 포아송 분포를 따르는 확률변수는 기댓값과 분산의  λ값도 같다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*모수가 강도(기댓값)밖에 없기 때문에 다른 통계적 값이 코드를 짤때 들어가지 않음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음이항분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포아송 분포와 마찬가지로 카운트 데이터가 따르는 확률분포로 포아송분포보다 분산이 크다. 따라서 과분산된 경우 사용하면 잘 모델링된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감마분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 이상의 값을 취하는 연속형 확률변수가 따르는 확률분포로 0 이상의 값만 취하며, 분산값도 평균값에 따라 변한다(등분산이 아님)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 1) 모집단이 정규분포를 따르는 데이터이고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(정규성)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2) 수준 사이의 분산값이 다르지 않다는 조건에서 사용가능하다.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(등분산성) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; 그룹내 차이(군내변동) 대비 그룹간 차이(군간변동)를 통해 차이를 검정하는 방법으로, 그룹간의 차이를 비교하기 위해서는 기본적으로 세팅이 같아야 하는게 그게 바로 정규성과 등분산성이라는 것이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반선형모델의 구성요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 모집단이 따르는 확률분포 2.선형예측자 3. 링크함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형예측자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독립변수를 선형의 관계식으로 표현한 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 맥주 매상이라는 종속 변수를 기온이라는 독립변수에서 예측하는 경우 : B0+B1 * 기온(도씨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속변수와 선형예측자를 서로 대응시키기 위해 사용함. 종속변수에 링크를 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 맥주판매개수 = B0+B1*기온(도씨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이때, 맥주판매개수는 마이너스가 될 일이 없지만 회귀계수를 어떻게 사용하냐에 따라 마이너스가 될 수 있기 때문에 링크함수를 상용해준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예)log[맥주판매개수]=B0+B1*기온(도씨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주판매개수 =exp[B0+B1*기온(도씨)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크함수와 확률분포의 대응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항등함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로짓함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지스틱회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포아송 회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 항등함수 : f(x) = x가 되는 함수로 단순히 얘기하면 아무런 변환도 하지 않는 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결론(검정법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIC를 이용해 검정하는데 일반선형모델에서는 회귀계수의 t검정을 실시할 수 없기 때문에 Wald 검정을 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wald 검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wald 검정은 샘플 사이즈가 클 때 추정값이 정규분포를 따르는 것을 이용한 검정방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우도비 검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모델의 적합도를 비교하는 방법으로 Type 2 ANOVA와 같은 해석이 가능한 계산법도 제안된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지스틱 회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">확률분포에 이항분포를 사용하고 링크함수에 로짓함수를 사용한 일반선형모델로 독립변수가 여러개 있어도 괜찮고 연속형과 카테고리형이 섞여있어도 상관없다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시험에 합격, 불합격을 예측하는 것을 공부시간에 따라 결과를 주고싶음. 하지만 합/불합은 이항확률변수로(1,0)인데, 공부시간은 연속확률변수임 이럴때 합/불합과 공부시간을 로짓함수를 링크함수로 이용하여 식을 만들면 됨. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f(x) = log(x/1-x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지스틱함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로짓함수의 역함수로 g(x)라고 하며 g(f(x)) = x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g(y) = 1/1+exp(-y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*exp는 지수함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수함수 로그함수 개념 및 간단한 문제풀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">특징 : exp(-y)는 음수가 될 수 없음. 지수함수이기 때문! 때문에 로지스틱함수의 분모는 1이하로 내려가지 않는다. Exp(-y)는 y가 작아질수록 큰값이 된다. 분모가 큰 값이 되면 로지스틱함수의 출력은 점점 0에 가까워진다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지스틱회귀구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합격자수 : M~Bin(m|10, 1/1+exp[-(B0+B1 *5)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수의 추정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0, B1의 추정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*M은 성공확률, 여기서는 시행횟수가 10인 이항분포를 따른다고 가정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_glm = smf.glm(formula = "result ~ hours", data=test_result, family =sm.families.Binomial()).fit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*smf.glm은 일반선형모델을 추정하는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sm.families.Binomial()의 경우 이항분포로 확률분포를 지정해서 이렇게 함. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오즈(odds)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패하는 것보다 성공하는 것이 몇 배 더 쉬운가를 나타내는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오즈 = p/1-p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그오즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추정된 계수 해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오즈에 로그를 취한 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오즈비(odd ratio)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오즈 간에 비율을 취한 것, 오즈비에 로그를 취한 것은 로그 오즈비라고 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지스틱 회귀계수와 오즈비의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀계수는 독립변수를 1단위로 변화시켰을 때의 로그오즈비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*p는 성공확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) 공부 시간이 1시간일 때와 2시간일 때의 합격률의 각각의 오즈(p/1-p)를 구한 후 로그오즈비를 구함 log(odds_2/odds_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>이때 로그 오즈비는 공부시간의 계수와 일치함. 공부시간의 계수의 경우 mod_glm.params["hours"]를 하면 나온다. 그리고 계수에 exp를 취하면 오즈비. Exp(mod_glm.params["hours"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반선형모델의 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정규선형모델에서 배운 것처럼 모델을 평가할 때 잔차의 체크는 필수(그래프에서 얼마나 벗어났는지 봐야하기 때문) 다만 모집단 분포가 정규분포 이외의 분포가 되면 잔차의 취급이 바귄다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피어슨 잔차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(y-N*p_hat)/sqrt(N*p_hat*(1-p_hat))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*N은 시행횟수, p_hat은추측한 성공확률(즉, mod_glm.predict()로 계산한 예측치 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">피어슨 잔차의 제곱합은 피어슨 카이제곱통계량이라고도 부르며 모델 적합도의 지표가 된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모델적합도를 평가하는 지표로, deviance가 크면 모델이 맞지 않는다고 평가할 수 있다. 잔차제곱합을 우도처럼 표현한 것이라고 생각하면 된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률 vs 우도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교차 엔트로피 오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">머신러닝에서 로지스틱 회귀를 교차엔트로피 오차의 최소화라는 관점으로 설명하는 일이 자주 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모집단 분포가 이항분포라고 가정한 경우 deviance와 같은 의미를 가진다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포아송회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률분포에 포아송 분포를 사용하고 링크함수에 록함수를 사용한 일반선형모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_pois = smf.glm("beer_number ~temperature", beer, family=sm.famillies.Poisson()).fit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>family= 항목의 경우 확률분포를 지정하는 것이고 여기서는 Poisson()을 사용해 포아송회귀임을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stats.t.pdf(x=x, df=30이하 숫자로 넘어가게되면그냥 z-score쓰는게 낫다)
+* z-score(표준점수) : 표준 점수는 통계학적으로 정규분포를 만들고 개개의 경우가 표준편차상에 어떤 위치를 차지하는지를 보여주는 차원없는 수치이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t분포는 모분산을 모르는 상황에서도 표본평균의 분포에 대해 얘기할 수 있다. 그리고 애초에 표본이 많지 않을 때 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(실패할 확률분에 성공확률)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연상수 e찾아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포아송분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomForest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNearestNeighbors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportVectorModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">쉽다, 직관적이다, 피쳐의 스케일링이나 정규화 등의 사전 가공 영향도가 크지 않다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">과적합으로 알고리즘 성능이 떨어진다. 이를 극복하기 위해 트리의 크기를 사전에 제한하는 튜닝이 필요하다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_samples_leaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_leaf_nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 말단 노드(leaf)가 되기 위한 최소한의 샘플 데이터 수 
+ - Min_samples_split와 유사하게 과적합 제어 용도. 그러나 비대칭성(imbalanced) 데이터의 경우 특정 클래스의 데이터가 극도로 작을 수 있으므로 이 경우는 작게 설정 필요. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 최적의 분할을 위해 고려할 최대 피처 개수, 디폴트는 None으로 데이터 세트의 모든 피처를 사용해 분할 수행 
+ - int형으로 지정하면 대상 피처의 개수, float형으로 지정하면 전체 피처 중 대상 피처의 퍼센트임 
+ - 'sqrt'는 전체 피처 중 sqrt(전체 피처 개수) 만큼 선정 
+ - 'auto'로 지정하면 sqrt와 동일 
+ - 'log'는 전체 피처 중 log2(전체 피처 개수) 선정 
+ - 'None'은 전체 피처 선정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 말단 노드(leaf)의 최대 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 노드를 분할하기 위한 최소한의 샘플 데이터 수로 과적합을 제어하는데 사용됨 
+ - 디폴트는 2이고 작게 설정할수록 분할되는 노드가 많아져서 과적합 가능성 증가 
+ - 과적합을 제어, 1로 설정할 경우 분할되는 노드가 많아져서 과적합 가능성 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_estimators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT : None 
+RF : 'auto', 'sqrt'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridSearchCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 경사 하강법에서 사용할 비용 함수를 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - GBM이 학습을 진행할 때마다 적용하는 학습률. Weak learner가 순차적으로 오류 값을 보정해 나가는 데 적용하는 계수입니다. 0~1 사이의 값을 지정할 수 있으며 기본값은 0.1이다. 너무 작은 값을 적용하면 업데이트되는 값이 작아져 최소 오류 값을 찾아 예측 성능이 높아질 가능성이 높다. 하지만 많은 weak learner는 순차적인 반복이 필요해서 수행 시간이 오래 걸리고, 또 너무 작게 설정하면 모든 weak learner의 반복이 완료돼도 최소 오류 값을 찾지 못할 수 있다. 반대로 큰 값을 적용하면 최소 오류 값을 찾지 못하고 그냥 지나쳐 버려 예측 성능이 떨어질 가능성이 높아지지만 빠른 수행이 가능하다.  
+ - 이런 특성 때문에 learning_rate는 n_estimators와 상호 보완적으로 조합해 사용한다. leearning_rate를 작게 하고 n_estimators를 크게 하면 더 이상 성능이 좋아지지 않는 한계점까지는 예측 성능이 조금씩 좋아질 수 있다. 하지만 수행 시간이 너무 오래 걸리는 단점이 있으며, 예측 성능 역시 현저히 좋아지지는 않는다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;RandomForest&gt;
+ - 랜덤 포레스트에서 결정 트리의 개수를 지정. 많이 설정할수록 좋은 성능을 기대할 수 있지만 계속 증가시킨다고 성능이 무조건 향상되는 것은 아니다. 또한 늘릴수록 학습 수행 시간이 오래 걸리는 것도 감안해야 한다. 
+&lt;GBM&gt;
+ - weak learner의 개수로 weak learner가 순차적으로 오류를 보정하므로 개수가 많을수록 예측 성능이 일정 수준까지는 좋아질 수 있다. 하지만 개수가 많을수록 수행 시간이 오래걸린다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - weak learner가 학습에 사용하는 데이터의 샘플링 비율로 기본값은1이며 이는 전체 학습 데이터를 기반으로 학습한다는 의미이다(0.5이면 학습 데이터의 50%). 과적합이 염려되는 경우 subsample을 1보다 작은 값으로 설정한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 트리의 최대 깊이를 규정 
+ - 디폴트는 None. None으로 설정하면 완벽하게 클래스 결정값이 될때까지 깊이를 계속 키우며 분할하거나 노드가 가지는 데이터 개수가 min_samples_split보다 작아질 때까지 계속 깊이를 증가시킴. 
+ - 깊이가 깊어지면 min_samples_split 설정대로 최대 분할하여 과적합할 수 있으므로 적절한 값으로 제어 필요. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_samples_split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">싸이킷런 XGBoost
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파이썬 파라미터 무시</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>싸이킷런</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> LightBGM</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L1 regularization 적용값입니다. 피처 개수가 많을 경우 적용을 검토하며 값이 클수록 과적합 감소 효과가 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L2 regularizaion 적용값으로 피처 개수가 많을 경우 적용을 검토하며 값이 클수록 과적합 감소 효과가 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>early_stopping_rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaL_metric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval_set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(X_train, y_train), (X_test, x_test)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verbose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증에 사용되는 함수를 정의, 기본값은 회귀인 경우는 rmse, 분류일 경우에는 error.  
+유형 : rmse,mae,logloss,error,merror,mlogloss,auc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_child_samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_leaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 트리가 가질 수 있는 최대 리프 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colsample_bytree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플링 레코드수를 줄이기 위해 사용함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_child_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classifier, regressor, pipeline이 사용될 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key+ 리스트 값을 가지는 딕셔너리가 주어진다. Estimator의 튜닝을 위해 파라미터명과 사용될 여러 파라미터 값을 지정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">scoring </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측 성능을 측정할 평가 방법을 지정한다. 보통은 사이킷런의 성능 평가 지표를 지정하는 문자열(예:accuracy)로 지정하나 별도의 성능 평가 지표 함수도 지정할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교차 검증을 위해 분할되는 학습/데스트 세트의 개수 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">디폴트가 True로 True 생성 시 가장 최적의 하이퍼 파라미터를 찾은 뒤 입력된 estimator 객체를 해당 파이퍼 파라미터로 재학습 시킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">n_neighbors = K </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>K가 작을수록 모델이 복잡해져 과적합이 일어나고 너무 크면 단순해져 성능이 나빠진다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>p=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+맨하탄 거리 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">p=2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+유클리디안 거리(기본값)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>kernel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+종류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : linear, polynomial, sigmoid, rbf 
+deision boundary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모양을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선형으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다항식형으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">C가 크면 training 포인트를 정확히 구분해주지만 c가 작으면 decision boundary를 그려준다. 즉 c가 작으면 Margin이 커진다. 즉, C가 커지면 decision boundary는 더 굴곡지고, C가 작으면 decision boundary는 직선에 가깝다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Gamma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">값이 크면 reach(decision boundary 굴곡에 영향을 주는 데이터 범위)가 좁다는 뜻이고, 작으면 reach가 멀다는 뜻이다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">규제의 강도를 조절하는 alpha값의 역수로 C=1/alpha이다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF ExtraBold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">penalty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Bold"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="NanumSquareOTF Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규제의 유형을 설정 
+종류 : l1,l2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">특징 : 가볍고 빠르며 이진 분류 예측 성능이 뛰어나서 이진분류의 기본 모델로 사용하는 경우가 많다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징 : 교차검증과 최적 하이퍼 파라미터 튜닝을 한 번에 할 수 있는 모델로 param_grid에 주고자 하는 hyperparameters를 key값으로 줘서 가장 최고의 값을 얻을 수 있다. 
+방법: 
+Ml모델명.best_pams_
+Ml모델명.bes_score_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4036,7 +5253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="56">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4295,6 +5512,138 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="NanumSquareOTF ExtraBold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4340,7 +5689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -4392,6 +5741,15 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -4505,6 +5863,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color theme="1"/>
@@ -4524,6 +5891,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4533,7 +6153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4570,6 +6190,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4648,6 +6271,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4675,6 +6301,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4765,13 +6394,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -4789,9 +6424,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4804,37 +6436,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -4846,11 +6487,206 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6839,8 +8675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316CE90E-CAB5-914A-8135-1191A61C5281}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6853,19 +8689,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7116,7 +8952,7 @@
     </row>
     <row r="25" spans="1:7" ht="38">
       <c r="A25" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>210</v>
@@ -7131,7 +8967,7 @@
         <v>212</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>386</v>
@@ -7147,12 +8983,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="133">
+    <row r="28" spans="1:7" ht="190">
       <c r="B28" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>214</v>
+        <v>799</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>389</v>
@@ -7164,69 +9000,69 @@
         <v>392</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>393</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="38">
       <c r="B29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="209">
       <c r="B30" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="38">
       <c r="B31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7249,8 +9085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0E41FA-5730-8748-A478-8F2F6BA301BE}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7262,67 +9098,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>321</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+        <v>253</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>286</v>
@@ -7330,61 +9166,61 @@
       <c r="D5" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+        <v>254</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+        <v>257</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>235</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>236</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>301</v>
@@ -7392,53 +9228,53 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="91" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>239</v>
+      <c r="A14" s="27" t="s">
+        <v>238</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>384</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>358</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" t="s">
         <v>284</v>
@@ -7449,13 +9285,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" t="s">
         <v>266</v>
       </c>
-      <c r="B16" t="s">
-        <v>267</v>
-      </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="95">
@@ -7463,15 +9299,15 @@
         <v>365</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="76">
-      <c r="B18" s="12" t="s">
-        <v>262</v>
+      <c r="B18" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="C18" t="s">
         <v>362</v>
@@ -7482,10 +9318,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7509,7 +9345,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
         <v>364</v>
@@ -7517,93 +9353,93 @@
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" s="38"/>
+        <v>243</v>
+      </c>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="30"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="30"/>
-      <c r="B25" s="33" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" ht="57">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="21"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="38">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>255</v>
+      <c r="C28" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="57">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>322</v>
       </c>
       <c r="B30" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>278</v>
       </c>
       <c r="D30" t="s">
@@ -7611,7 +9447,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>281</v>
       </c>
       <c r="D31" t="s">
@@ -7619,7 +9455,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7627,7 +9463,7 @@
       <c r="B33" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>319</v>
       </c>
     </row>
@@ -7638,19 +9474,19 @@
       <c r="B34" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="28" t="s">
         <v>291</v>
       </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="38">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>322</v>
       </c>
       <c r="B35" t="s">
         <v>292</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>289</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -7658,26 +9494,26 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="76">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:5" ht="76">
-      <c r="A37" s="30"/>
-      <c r="B37" s="21" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="24" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7685,7 +9521,7 @@
       <c r="B38" t="s">
         <v>299</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7693,7 +9529,7 @@
       <c r="B39" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="14" t="s">
         <v>297</v>
       </c>
     </row>
@@ -7701,12 +9537,12 @@
       <c r="B40" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="57">
-      <c r="B41" s="37"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="1" t="s">
         <v>349</v>
       </c>
@@ -7721,13 +9557,13 @@
       <c r="B42" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="29" t="s">
         <v>308</v>
       </c>
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="76">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="26" t="s">
         <v>322</v>
       </c>
       <c r="B43" t="s">
@@ -7752,13 +9588,13 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>322</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="30" t="s">
         <v>324</v>
       </c>
       <c r="D45" s="9"/>
@@ -7767,47 +9603,47 @@
       <c r="A48" t="s">
         <v>330</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="36" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="25" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="36" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="25" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="25" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="25" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="25" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="30" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="25" t="s">
         <v>340</v>
       </c>
       <c r="D57" t="s">
@@ -7815,7 +9651,7 @@
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="25" t="s">
         <v>341</v>
       </c>
       <c r="D58" t="s">
@@ -7823,7 +9659,7 @@
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="37" t="s">
         <v>331</v>
       </c>
       <c r="D59" t="s">
@@ -7831,17 +9667,17 @@
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="25" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="25" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="25" t="s">
         <v>342</v>
       </c>
     </row>
@@ -7866,10 +9702,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCD8FFA-815F-104F-8863-ABFF00BFF5DE}">
-  <dimension ref="A1:S190"/>
+  <dimension ref="A1:S205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7883,1636 +9719,2100 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>234</v>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="45" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="42" t="s">
+      <c r="B4" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="C4" t="s">
         <v>401</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="43" t="s">
+      <c r="C5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="45"/>
+      <c r="B6" s="55"/>
+      <c r="C6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="45"/>
+      <c r="B7" s="55"/>
+      <c r="C7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="45"/>
+      <c r="B8" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="45"/>
+      <c r="B9" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="45"/>
+      <c r="B10" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="C10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="45"/>
+      <c r="B11" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="45"/>
+      <c r="B12" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="45"/>
+      <c r="B13" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="45"/>
+      <c r="B14" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="45"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" ht="111" customHeight="1">
+      <c r="A16" s="41"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="J16" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="C5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="43"/>
-      <c r="B6" s="52"/>
-      <c r="C6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="43"/>
-      <c r="B7" s="52"/>
-      <c r="C7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="43"/>
-      <c r="B8" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="C8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="43"/>
-      <c r="B9" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="C9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="43"/>
-      <c r="B10" s="52" t="s">
-        <v>411</v>
-      </c>
-      <c r="C10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="43"/>
-      <c r="B11" s="53" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="43"/>
-      <c r="B12" s="53" t="s">
-        <v>415</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="43"/>
-      <c r="B13" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="43"/>
-      <c r="B14" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="43"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="39" t="s">
-        <v>420</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" ht="111" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="J16" s="40" t="s">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="34">
+      <c r="A17" s="41"/>
+      <c r="B17" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="34">
-      <c r="A17" s="39"/>
-      <c r="B17" s="54" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="41"/>
+      <c r="B18" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="41" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="58"/>
+      <c r="C19" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="D19" s="68"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="55" t="s">
+        <v>431</v>
+      </c>
+      <c r="C21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="55"/>
+      <c r="C22" t="s">
         <v>434</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="39"/>
-      <c r="B18" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>426</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="39" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="55"/>
-      <c r="C19" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="D19" s="65"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>430</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>431</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="52" t="s">
-        <v>432</v>
-      </c>
-      <c r="C21" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="52"/>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="55" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" s="68" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="C23" s="65" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" t="s">
         <v>436</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" t="s">
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="55" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="52" t="s">
+      <c r="C24" t="s">
         <v>438</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="55"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="66" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="52"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="63" t="s">
-        <v>440</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52" t="s">
-        <v>460</v>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>440</v>
+      </c>
+      <c r="B27" s="55" t="s">
         <v>441</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="C27" t="s">
         <v>442</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="55" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="52" t="s">
+      <c r="C28" t="s">
         <v>444</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="19">
+      <c r="B29" s="60" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="19">
-      <c r="B29" s="57" t="s">
+      <c r="C29" t="s">
         <v>446</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>447</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>466</v>
+      </c>
+      <c r="D30" s="69"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="55"/>
+      <c r="C31" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="C30" s="67" t="s">
+    <row r="32" spans="1:9">
+      <c r="B32" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>450</v>
+      </c>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="55" t="s">
+        <v>439</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>451</v>
+      </c>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="55"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="66" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="55" t="s">
+        <v>455</v>
+      </c>
+      <c r="C36" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="C37" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="C38" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="55"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="B40" s="65"/>
+      <c r="C40" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="55"/>
+      <c r="C41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" t="s">
         <v>467</v>
       </c>
-      <c r="D30" s="66"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="52"/>
-      <c r="C31" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>451</v>
-      </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="B33" s="52" t="s">
-        <v>440</v>
-      </c>
-      <c r="C33" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="52"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="63" t="s">
-        <v>454</v>
-      </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="C36" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="52" t="s">
-        <v>458</v>
-      </c>
-      <c r="C37" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="58" t="s">
-        <v>461</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E42" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="71" t="s">
+        <v>469</v>
+      </c>
+      <c r="C43" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" s="71" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="52"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="59" t="s">
-        <v>463</v>
-      </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="61" t="s">
-        <v>464</v>
-      </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="52"/>
-      <c r="C41" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="63" t="s">
-        <v>466</v>
-      </c>
-      <c r="B42" s="52"/>
-      <c r="C42" t="s">
-        <v>468</v>
-      </c>
-      <c r="E42" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="68" t="s">
-        <v>470</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="68" t="s">
-        <v>463</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>472</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" s="55"/>
+      <c r="C45" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="52"/>
-      <c r="C45" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="B46" s="58" t="s">
+        <v>502</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="C46" t="s">
         <v>475</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F46" t="s">
         <v>476</v>
-      </c>
-      <c r="F46" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8"/>
-      <c r="B47" s="58" t="s">
-        <v>478</v>
+      <c r="B47" s="61" t="s">
+        <v>477</v>
       </c>
       <c r="C47" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="8"/>
-      <c r="B48" s="70" t="s">
-        <v>479</v>
+      <c r="B48" s="73" t="s">
+        <v>478</v>
       </c>
       <c r="C48" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="8"/>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C49" t="s">
         <v>482</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="B50" s="55" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="41" t="s">
-        <v>504</v>
-      </c>
-      <c r="B50" s="52" t="s">
+      <c r="C50" t="s">
         <v>484</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>485</v>
       </c>
-      <c r="E50" t="s">
+      <c r="J50" t="s">
         <v>486</v>
       </c>
-      <c r="J50" t="s">
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="43"/>
+      <c r="B51" s="55" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="41"/>
-      <c r="B51" s="52" t="s">
+      <c r="C51" t="s">
         <v>488</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>489</v>
       </c>
-      <c r="E51" t="s">
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="43"/>
+      <c r="B52" s="55" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="41"/>
-      <c r="B52" s="52" t="s">
+      <c r="C52" t="s">
         <v>491</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="43"/>
+      <c r="B53" s="55" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="41"/>
-      <c r="B53" s="52" t="s">
+      <c r="C53" t="s">
         <v>493</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="43"/>
+      <c r="B54" s="55" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="41"/>
-      <c r="B54" s="52" t="s">
+      <c r="C54" t="s">
         <v>495</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="55" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="52" t="s">
+      <c r="B55" s="74"/>
+      <c r="C55" t="s">
         <v>497</v>
-      </c>
-      <c r="B55" s="71"/>
-      <c r="C55" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B56" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="B56" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="C56" t="s">
         <v>499</v>
-      </c>
-      <c r="C56" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="8"/>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="C57" t="s">
         <v>501</v>
       </c>
-      <c r="C57" t="s">
-        <v>502</v>
-      </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="75" t="s">
+        <v>505</v>
+      </c>
+      <c r="C58" t="s">
         <v>506</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="54" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="B59" s="51" t="s">
+      <c r="C59" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="55" t="s">
         <v>508</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="55" t="s">
+        <v>510</v>
+      </c>
+      <c r="C61" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="54" t="s">
+        <v>512</v>
+      </c>
+      <c r="C62" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="52" t="s">
-        <v>509</v>
-      </c>
-      <c r="C60" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="52" t="s">
-        <v>511</v>
-      </c>
-      <c r="C61" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="B62" s="51" t="s">
-        <v>513</v>
-      </c>
-      <c r="C62" t="s">
+    <row r="63" spans="1:10">
+      <c r="B63" s="54" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="51" t="s">
+      <c r="C63" t="s">
         <v>516</v>
-      </c>
-      <c r="C63" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B64" s="72"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="B65" s="55" t="s">
         <v>518</v>
       </c>
-      <c r="B64" s="69"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="B65" s="52" t="s">
+      <c r="C65" t="s">
         <v>519</v>
       </c>
-      <c r="C65" t="s">
+      <c r="F65" t="s">
         <v>520</v>
       </c>
-      <c r="F65" t="s">
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="B66" s="65"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="B67" s="54" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="59" t="s">
-        <v>506</v>
-      </c>
-      <c r="B66" s="62"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="B67" s="51" t="s">
+      <c r="C67" t="s">
         <v>522</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" s="76" t="s">
         <v>523</v>
       </c>
-      <c r="E67" s="73" t="s">
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="76" t="s">
         <v>524</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="73" t="s">
+      <c r="I67" s="69"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="B68" s="55"/>
+      <c r="C68" t="s">
         <v>525</v>
       </c>
-      <c r="I67" s="66"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="B68" s="52"/>
-      <c r="C68" t="s">
+    </row>
+    <row r="69" spans="1:10">
+      <c r="B69" s="55"/>
+      <c r="C69" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="B69" s="52"/>
-      <c r="C69" t="s">
+      <c r="F69" t="s">
         <v>527</v>
       </c>
-      <c r="F69" t="s">
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="55"/>
+      <c r="C70" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="B70" s="52"/>
-      <c r="C70" t="s">
+      <c r="E70" s="77" t="s">
         <v>529</v>
       </c>
-      <c r="E70" s="74" t="s">
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+      <c r="J70" t="s">
         <v>530</v>
       </c>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" t="s">
+    </row>
+    <row r="71" spans="1:10" ht="19" thickBot="1">
+      <c r="B71" s="55"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="82" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="19" thickBot="1">
-      <c r="B71" s="52"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="78" t="s">
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="81" t="s">
         <v>532</v>
       </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="B72" s="77" t="s">
+      <c r="C72" s="90" t="s">
         <v>533</v>
       </c>
-      <c r="C72" s="85" t="s">
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="92"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" s="22"/>
+      <c r="C73" s="93" t="s">
         <v>534</v>
       </c>
-      <c r="D72" s="86"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="86"/>
-      <c r="I72" s="87"/>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" s="21"/>
-      <c r="C73" s="88" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="94"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="22"/>
+      <c r="C74" s="93" t="s">
         <v>535</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="89"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" s="21"/>
-      <c r="C74" s="88" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="94"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="22"/>
+      <c r="C75" s="93" t="s">
         <v>536</v>
       </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="89"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" s="21"/>
-      <c r="C75" s="88" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="94"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="22"/>
+      <c r="C76" s="93" t="s">
         <v>537</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="89"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" s="21"/>
-      <c r="C76" s="88" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="94"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="B77" s="22"/>
+      <c r="C77" s="93" t="s">
         <v>538</v>
       </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="89"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="B77" s="21"/>
-      <c r="C77" s="88" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="94"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="22"/>
+      <c r="C78" s="93" t="s">
         <v>539</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="89"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="B78" s="21"/>
-      <c r="C78" s="88" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="94"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" s="22"/>
+      <c r="C79" s="95" t="s">
+        <v>574</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="94"/>
+    </row>
+    <row r="80" spans="1:10" ht="19" thickBot="1">
+      <c r="B80" s="22"/>
+      <c r="C80" s="96" t="s">
+        <v>575</v>
+      </c>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="98"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="99"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="55" t="s">
         <v>540</v>
       </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="89"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="B79" s="21"/>
-      <c r="C79" s="90" t="s">
-        <v>575</v>
-      </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="89"/>
-    </row>
-    <row r="80" spans="1:10" ht="19" thickBot="1">
-      <c r="B80" s="21"/>
-      <c r="C80" s="91" t="s">
+      <c r="B81" s="74"/>
+      <c r="C81" s="78" t="s">
+        <v>541</v>
+      </c>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="B82" s="55"/>
+      <c r="C82" s="85" t="s">
+        <v>542</v>
+      </c>
+      <c r="D82" s="68"/>
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="B83" s="55"/>
+      <c r="C83" s="85" t="s">
+        <v>543</v>
+      </c>
+      <c r="D83" s="68"/>
+      <c r="E83" s="80" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="B84" s="55"/>
+      <c r="C84" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="D84" s="68"/>
+      <c r="E84" t="s">
+        <v>546</v>
+      </c>
+      <c r="F84" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="B85" s="55" t="s">
+        <v>548</v>
+      </c>
+      <c r="C85" s="86" t="s">
+        <v>549</v>
+      </c>
+      <c r="D85" s="87"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="87"/>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="B86" s="55"/>
+      <c r="C86" s="88" t="s">
+        <v>550</v>
+      </c>
+      <c r="D86" s="68"/>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="B87" s="55"/>
+      <c r="C87" s="68" t="s">
+        <v>552</v>
+      </c>
+      <c r="D87" s="68"/>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="B88" s="55"/>
+      <c r="C88" s="68" t="s">
+        <v>551</v>
+      </c>
+      <c r="D88" s="68"/>
+      <c r="E88" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="B89" s="55" t="s">
+        <v>554</v>
+      </c>
+      <c r="C89" s="68" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="B90" s="55"/>
+      <c r="C90" s="68" t="s">
+        <v>556</v>
+      </c>
+      <c r="D90" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="B91" s="55" t="s">
+        <v>558</v>
+      </c>
+      <c r="C91" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="E91" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="B92" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="87" t="s">
+        <v>561</v>
+      </c>
+      <c r="F92" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="B93" s="55"/>
+      <c r="C93" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G93" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="B94" s="61" t="s">
+        <v>566</v>
+      </c>
+      <c r="C94" s="87" t="s">
+        <v>568</v>
+      </c>
+      <c r="F94" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="B95" s="55"/>
+      <c r="C95" s="68" t="s">
+        <v>567</v>
+      </c>
+      <c r="S95" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="B96" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C96" s="87" t="s">
+        <v>571</v>
+      </c>
+      <c r="S96" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="B97" s="55"/>
+      <c r="C97" s="68" t="s">
+        <v>572</v>
+      </c>
+      <c r="D97" s="69"/>
+      <c r="E97" t="s">
+        <v>573</v>
+      </c>
+      <c r="S97" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="62" t="s">
+        <v>585</v>
+      </c>
+      <c r="B98" s="65"/>
+      <c r="C98" s="87" t="s">
         <v>576</v>
       </c>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="92"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="92"/>
-      <c r="I80" s="94"/>
-    </row>
-    <row r="81" spans="1:19">
-      <c r="A81" s="52" t="s">
-        <v>541</v>
-      </c>
-      <c r="B81" s="71"/>
-      <c r="C81" s="75" t="s">
-        <v>542</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:19">
-      <c r="B82" s="52"/>
-      <c r="C82" s="80" t="s">
-        <v>543</v>
-      </c>
-      <c r="D82" s="65"/>
-      <c r="E82" s="21"/>
-    </row>
-    <row r="83" spans="1:19">
-      <c r="B83" s="52"/>
-      <c r="C83" s="80" t="s">
-        <v>544</v>
-      </c>
-      <c r="D83" s="65"/>
-      <c r="E83" s="76" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
-      <c r="B84" s="52"/>
-      <c r="C84" s="80" t="s">
-        <v>546</v>
-      </c>
-      <c r="D84" s="65"/>
-      <c r="E84" t="s">
-        <v>547</v>
-      </c>
-      <c r="F84" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
-      <c r="B85" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="C85" s="81" t="s">
-        <v>550</v>
-      </c>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="82"/>
-    </row>
-    <row r="86" spans="1:19">
-      <c r="B86" s="52"/>
-      <c r="C86" s="83" t="s">
-        <v>551</v>
-      </c>
-      <c r="D86" s="65"/>
-    </row>
-    <row r="87" spans="1:19">
-      <c r="B87" s="52"/>
-      <c r="C87" s="65" t="s">
-        <v>553</v>
-      </c>
-      <c r="D87" s="65"/>
-    </row>
-    <row r="88" spans="1:19">
-      <c r="B88" s="52"/>
-      <c r="C88" s="65" t="s">
-        <v>552</v>
-      </c>
-      <c r="D88" s="65"/>
-      <c r="E88" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
-      <c r="B89" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="C89" s="65" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
-      <c r="B90" s="52"/>
-      <c r="C90" s="65" t="s">
-        <v>557</v>
-      </c>
-      <c r="D90" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
-      <c r="B91" s="52" t="s">
-        <v>559</v>
-      </c>
-      <c r="C91" s="65" t="s">
-        <v>560</v>
-      </c>
-      <c r="E91" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
-      <c r="B92" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" s="82" t="s">
-        <v>562</v>
-      </c>
-      <c r="F92" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
-      <c r="B93" s="52"/>
-      <c r="C93" s="65" t="s">
-        <v>564</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="G93" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
-      <c r="B94" s="58" t="s">
-        <v>567</v>
-      </c>
-      <c r="C94" s="82" t="s">
-        <v>569</v>
-      </c>
-      <c r="F94" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
-      <c r="B95" s="52"/>
-      <c r="C95" s="65" t="s">
-        <v>568</v>
-      </c>
-      <c r="S95" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
-      <c r="B96" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="C96" s="82" t="s">
-        <v>572</v>
-      </c>
-      <c r="S96" t="s">
+      <c r="S98" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
-      <c r="B97" s="52"/>
-      <c r="C97" s="65" t="s">
-        <v>573</v>
-      </c>
-      <c r="D97" s="66"/>
-      <c r="E97" t="s">
-        <v>574</v>
-      </c>
-      <c r="S97" t="s">
+    <row r="99" spans="1:19">
+      <c r="B99" s="55"/>
+      <c r="C99" s="87" t="s">
+        <v>577</v>
+      </c>
+      <c r="S99" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
-      <c r="A98" s="59" t="s">
+    <row r="100" spans="1:19">
+      <c r="B100" s="55"/>
+      <c r="C100" s="87" t="s">
+        <v>720</v>
+      </c>
+      <c r="J100" t="s">
+        <v>721</v>
+      </c>
+      <c r="S100" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="19" thickBot="1">
+      <c r="B101" s="55" t="s">
+        <v>578</v>
+      </c>
+      <c r="C101" s="87" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="B102" s="55" t="s">
+        <v>580</v>
+      </c>
+      <c r="C102" s="87" t="s">
+        <v>602</v>
+      </c>
+      <c r="H102" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="I102" s="91"/>
+      <c r="J102" s="91"/>
+      <c r="K102" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="L102" s="91"/>
+      <c r="M102" s="92"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="B103" s="55" t="s">
+        <v>581</v>
+      </c>
+      <c r="C103" s="87" t="s">
+        <v>582</v>
+      </c>
+      <c r="H103" s="102" t="s">
+        <v>583</v>
+      </c>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="94"/>
+    </row>
+    <row r="104" spans="1:19" ht="19" thickBot="1">
+      <c r="B104" s="55" t="s">
         <v>587</v>
       </c>
-      <c r="B98" s="62"/>
-      <c r="C98" s="82" t="s">
-        <v>577</v>
-      </c>
-      <c r="S98" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
-      <c r="B99" s="52"/>
-      <c r="C99" s="82" t="s">
-        <v>578</v>
-      </c>
-      <c r="S99" t="s">
+      <c r="C104" s="87" t="s">
+        <v>588</v>
+      </c>
+      <c r="H104" s="103" t="s">
+        <v>584</v>
+      </c>
+      <c r="I104" s="97"/>
+      <c r="J104" s="97"/>
+      <c r="K104" s="97"/>
+      <c r="L104" s="97"/>
+      <c r="M104" s="99"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="B105" s="55" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="100" spans="1:19">
-      <c r="B100" s="52"/>
-      <c r="C100" s="82" t="s">
-        <v>579</v>
-      </c>
-      <c r="S100" t="s">
+      <c r="C105" s="87" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" ht="19" thickBot="1">
-      <c r="B101" s="52" t="s">
+      <c r="E105" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="B106" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="C106" s="87" t="s">
+        <v>598</v>
+      </c>
+      <c r="E106" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="46" t="s">
+        <v>603</v>
+      </c>
+      <c r="B107" s="54"/>
+      <c r="C107" s="87" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="B108" s="61" t="s">
+        <v>608</v>
+      </c>
+      <c r="C108" s="87" t="s">
+        <v>609</v>
+      </c>
+      <c r="E108" s="69" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="B109" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="E109" s="89" t="s">
+        <v>611</v>
+      </c>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="J109" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="B110" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="C110" t="s">
+        <v>635</v>
+      </c>
+      <c r="E110" s="89" t="s">
+        <v>613</v>
+      </c>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="J110" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="B111" s="55" t="s">
+        <v>614</v>
+      </c>
+      <c r="E111" s="89" t="s">
+        <v>615</v>
+      </c>
+      <c r="F111" s="20"/>
+      <c r="I111" t="s">
+        <v>617</v>
+      </c>
+      <c r="K111" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="B112" s="105" t="s">
+        <v>607</v>
+      </c>
+      <c r="D112" s="22"/>
+      <c r="E112" s="104" t="s">
+        <v>616</v>
+      </c>
+      <c r="F112" s="20"/>
+      <c r="J112" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="B113" s="106" t="s">
+        <v>619</v>
+      </c>
+      <c r="D113" s="22"/>
+      <c r="E113" s="104" t="s">
+        <v>620</v>
+      </c>
+      <c r="F113" s="20"/>
+      <c r="J113" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="B114" s="55" t="s">
         <v>580</v>
       </c>
-      <c r="C101" s="82" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
-      <c r="B102" s="52" t="s">
-        <v>582</v>
-      </c>
-      <c r="C102" s="82" t="s">
-        <v>604</v>
-      </c>
-      <c r="H102" s="85" t="s">
-        <v>588</v>
-      </c>
-      <c r="I102" s="86"/>
-      <c r="J102" s="86"/>
-      <c r="K102" s="86" t="s">
-        <v>603</v>
-      </c>
-      <c r="L102" s="86"/>
-      <c r="M102" s="87"/>
-    </row>
-    <row r="103" spans="1:19">
-      <c r="B103" s="52" t="s">
-        <v>583</v>
-      </c>
-      <c r="C103" s="82" t="s">
-        <v>584</v>
-      </c>
-      <c r="H103" s="96" t="s">
-        <v>585</v>
-      </c>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="89"/>
-    </row>
-    <row r="104" spans="1:19" ht="19" thickBot="1">
-      <c r="B104" s="52" t="s">
-        <v>589</v>
-      </c>
-      <c r="C104" s="82" t="s">
-        <v>590</v>
-      </c>
-      <c r="H104" s="97" t="s">
-        <v>586</v>
-      </c>
-      <c r="I104" s="92"/>
-      <c r="J104" s="92"/>
-      <c r="K104" s="92"/>
-      <c r="L104" s="92"/>
-      <c r="M104" s="94"/>
-    </row>
-    <row r="105" spans="1:19">
-      <c r="B105" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="C105" s="82" t="s">
-        <v>598</v>
-      </c>
-      <c r="E105" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
-      <c r="B106" s="52" t="s">
-        <v>599</v>
-      </c>
-      <c r="C106" s="82" t="s">
-        <v>600</v>
-      </c>
-      <c r="E106" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19">
-      <c r="A107" s="44" t="s">
-        <v>605</v>
-      </c>
-      <c r="B107" s="51"/>
-      <c r="C107" s="82" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19">
-      <c r="B108" s="58" t="s">
-        <v>610</v>
-      </c>
-      <c r="C108" s="82" t="s">
-        <v>611</v>
-      </c>
-      <c r="E108" s="66" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19">
-      <c r="B109" s="52" t="s">
-        <v>612</v>
-      </c>
-      <c r="E109" s="84" t="s">
-        <v>613</v>
-      </c>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="J109" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19">
-      <c r="B110" s="52" t="s">
-        <v>614</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="E114" s="104" t="s">
+        <v>622</v>
+      </c>
+      <c r="F114" s="20"/>
+      <c r="J114" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="B115" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="C115" s="85" t="s">
+        <v>624</v>
+      </c>
+      <c r="D115" s="69"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="B116" s="54"/>
+      <c r="C116" s="86" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="B117" s="55" t="s">
+        <v>627</v>
+      </c>
+      <c r="C117" s="86" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="B118" s="55" t="s">
+        <v>629</v>
+      </c>
+      <c r="C118" s="85" t="s">
+        <v>630</v>
+      </c>
+      <c r="D118" s="68"/>
+      <c r="E118" s="68"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="B119" s="55" t="s">
+        <v>632</v>
+      </c>
+      <c r="C119" s="85" t="s">
+        <v>631</v>
+      </c>
+      <c r="D119" s="69"/>
+      <c r="E119" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="E110" s="84" t="s">
-        <v>615</v>
-      </c>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="J110" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19">
-      <c r="B111" s="52" t="s">
-        <v>616</v>
-      </c>
-      <c r="E111" s="84" t="s">
-        <v>617</v>
-      </c>
-      <c r="F111" s="19"/>
-      <c r="I111" t="s">
-        <v>619</v>
-      </c>
-      <c r="K111" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19">
-      <c r="B112" s="99" t="s">
-        <v>609</v>
-      </c>
-      <c r="D112" s="21"/>
-      <c r="E112" s="98" t="s">
-        <v>618</v>
-      </c>
-      <c r="F112" s="19"/>
-      <c r="J112" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="B113" s="100" t="s">
-        <v>621</v>
-      </c>
-      <c r="D113" s="21"/>
-      <c r="E113" s="98" t="s">
-        <v>622</v>
-      </c>
-      <c r="F113" s="19"/>
-      <c r="J113" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="B114" s="52" t="s">
-        <v>582</v>
-      </c>
-      <c r="E114" s="98" t="s">
-        <v>624</v>
-      </c>
-      <c r="F114" s="19"/>
-      <c r="J114" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="B115" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="C115" s="80" t="s">
-        <v>626</v>
-      </c>
-      <c r="D115" s="66"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="44" t="s">
-        <v>627</v>
-      </c>
-      <c r="B116" s="51"/>
-      <c r="C116" s="81" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="B117" s="52" t="s">
-        <v>629</v>
-      </c>
-      <c r="C117" s="81" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="B118" s="52" t="s">
-        <v>631</v>
-      </c>
-      <c r="C118" s="80" t="s">
-        <v>632</v>
-      </c>
-      <c r="D118" s="65"/>
-      <c r="E118" s="65"/>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="B119" s="52" t="s">
-        <v>634</v>
-      </c>
-      <c r="C119" s="80" t="s">
-        <v>633</v>
-      </c>
-      <c r="D119" s="66"/>
-      <c r="E119" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="44" t="s">
-        <v>639</v>
-      </c>
-      <c r="B120" s="51"/>
-      <c r="C120" s="82"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="87"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>640</v>
-      </c>
-      <c r="B121" s="52"/>
-      <c r="C121" s="82" t="s">
-        <v>641</v>
+        <v>638</v>
+      </c>
+      <c r="B121" s="55"/>
+      <c r="C121" s="87" t="s">
+        <v>639</v>
       </c>
       <c r="G121" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>642</v>
-      </c>
-      <c r="B122" s="52"/>
-      <c r="C122" s="101" t="s">
-        <v>649</v>
+        <v>640</v>
+      </c>
+      <c r="B122" s="55"/>
+      <c r="C122" s="108" t="s">
+        <v>647</v>
       </c>
       <c r="E122" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="B123" s="52"/>
-      <c r="C123" s="19" t="s">
+      <c r="B123" s="55"/>
+      <c r="C123" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="G123" t="s">
         <v>643</v>
       </c>
-      <c r="G123" t="s">
-        <v>645</v>
-      </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="B124" s="52"/>
+      <c r="B124" s="55"/>
       <c r="G124" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="B125" s="52"/>
+        <v>645</v>
+      </c>
+      <c r="B125" s="55"/>
       <c r="C125" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G125" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
+        <v>650</v>
+      </c>
+      <c r="B126" s="55"/>
+      <c r="C126" t="s">
+        <v>651</v>
+      </c>
+      <c r="G126" t="s">
         <v>652</v>
       </c>
-      <c r="B126" s="52"/>
-      <c r="C126" t="s">
+    </row>
+    <row r="127" spans="1:10">
+      <c r="B127" s="55"/>
+      <c r="C127" t="s">
         <v>653</v>
       </c>
-      <c r="G126" t="s">
+    </row>
+    <row r="128" spans="1:10">
+      <c r="B128" s="55"/>
+      <c r="C128" s="68" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="B127" s="52"/>
-      <c r="C127" t="s">
+      <c r="D128" s="68"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="68"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="B129" s="55"/>
+      <c r="C129" s="68" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="B128" s="52"/>
-      <c r="C128" s="65" t="s">
+      <c r="D129" s="68"/>
+      <c r="G129" t="s">
         <v>656</v>
       </c>
-      <c r="D128" s="65"/>
-      <c r="E128" s="65"/>
-      <c r="F128" s="65"/>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="B129" s="52"/>
-      <c r="C129" s="65" t="s">
+    </row>
+    <row r="130" spans="1:10">
+      <c r="B130" s="109" t="s">
+        <v>742</v>
+      </c>
+      <c r="C130" s="52" t="s">
         <v>657</v>
       </c>
-      <c r="D129" s="65"/>
-      <c r="G129" t="s">
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="52"/>
+      <c r="J130" s="52"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="B131" s="55"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="B132" s="65"/>
+      <c r="C132" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
-      <c r="B130" s="102" t="s">
+    <row r="133" spans="1:10">
+      <c r="A133" s="110" t="s">
+        <v>662</v>
+      </c>
+      <c r="B133" s="55" t="s">
         <v>659</v>
       </c>
-      <c r="C130" s="49" t="s">
+      <c r="C133" t="s">
         <v>660</v>
       </c>
-      <c r="D130" s="49"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="49"/>
-      <c r="G130" s="49"/>
-      <c r="H130" s="49"/>
-      <c r="I130" s="49"/>
-      <c r="J130" s="49"/>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="B131" s="52"/>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="B132" s="62"/>
-      <c r="C132" t="s">
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="113" t="s">
+        <v>695</v>
+      </c>
+      <c r="B134" s="72" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="103" t="s">
+      <c r="C134" t="s">
+        <v>663</v>
+      </c>
+      <c r="E134" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="112" t="s">
+        <v>694</v>
+      </c>
+      <c r="B135" s="55" t="s">
         <v>665</v>
       </c>
-      <c r="B133" s="52" t="s">
+      <c r="C135" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="8"/>
+      <c r="B136" s="72" t="s">
+        <v>666</v>
+      </c>
+      <c r="C136" t="s">
+        <v>668</v>
+      </c>
+      <c r="F136" t="s">
+        <v>669</v>
+      </c>
+      <c r="J136" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="8"/>
+      <c r="B137" s="115" t="s">
         <v>662</v>
       </c>
-      <c r="C133" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="95"/>
-      <c r="B134" s="69" t="s">
-        <v>664</v>
-      </c>
-      <c r="C134" t="s">
-        <v>666</v>
-      </c>
-      <c r="E134" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="95"/>
-      <c r="B135" s="52" t="s">
-        <v>668</v>
-      </c>
-      <c r="C135" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="95"/>
-      <c r="B136" s="69" t="s">
-        <v>669</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>671</v>
       </c>
-      <c r="F136" t="s">
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="8"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="114" t="s">
         <v>672</v>
       </c>
-      <c r="J136" t="s">
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="8"/>
+      <c r="B139" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="C139" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="95"/>
-      <c r="B137" s="52" t="s">
-        <v>665</v>
-      </c>
-      <c r="C137" t="s">
+    <row r="140" spans="1:10">
+      <c r="A140" s="8"/>
+      <c r="B140" s="55" t="s">
+        <v>693</v>
+      </c>
+      <c r="C140" s="68" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="B138" s="52"/>
-      <c r="C138" t="s">
+      <c r="D140" s="68"/>
+      <c r="E140" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
-      <c r="A139" s="52" t="s">
+    <row r="141" spans="1:10" ht="19" thickBot="1">
+      <c r="A141" s="8"/>
+      <c r="B141" s="55"/>
+    </row>
+    <row r="142" spans="1:10" ht="19" thickBot="1">
+      <c r="A142" s="8"/>
+      <c r="B142" s="134" t="s">
         <v>676</v>
       </c>
-      <c r="B139" s="104"/>
-      <c r="C139" t="s">
+      <c r="C142" s="116" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="B140" s="52"/>
-      <c r="C140" t="s">
+      <c r="D142" s="117"/>
+      <c r="E142" s="117" t="s">
         <v>678</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F142" s="117"/>
+      <c r="G142" s="117"/>
+      <c r="H142" s="117"/>
+      <c r="I142" s="118"/>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="8"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="119" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="B141" s="52"/>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="B142" s="52" t="s">
+      <c r="D143" s="22" t="s">
         <v>680</v>
       </c>
-      <c r="C142" t="s">
+      <c r="E143" s="22"/>
+      <c r="F143" s="22" t="s">
         <v>681</v>
       </c>
-      <c r="E142" t="s">
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="120"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="8"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="121" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="B143" s="52"/>
-      <c r="C143" t="s">
+      <c r="D144" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="D143" t="s">
-        <v>684</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="120"/>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="8"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="119" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="B144" s="52"/>
-      <c r="C144" s="10" t="s">
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="122" t="s">
+        <v>687</v>
+      </c>
+      <c r="H145" s="122"/>
+      <c r="I145" s="123"/>
+    </row>
+    <row r="146" spans="1:11" ht="19" thickBot="1">
+      <c r="A146" s="113" t="s">
+        <v>695</v>
+      </c>
+      <c r="B146" s="22"/>
+      <c r="C146" s="124" t="s">
         <v>686</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D146" s="125"/>
+      <c r="E146" s="125"/>
+      <c r="F146" s="125"/>
+      <c r="G146" s="126"/>
+      <c r="H146" s="126"/>
+      <c r="I146" s="127"/>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="110" t="s">
         <v>688</v>
       </c>
-      <c r="F144" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9">
-      <c r="B145" s="52"/>
-      <c r="C145" t="s">
+      <c r="B147" s="55"/>
+      <c r="C147" t="s">
         <v>689</v>
       </c>
-      <c r="G145" s="105" t="s">
+      <c r="G147" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="B148" s="55"/>
+      <c r="C148" t="s">
+        <v>714</v>
+      </c>
+      <c r="J148" t="s">
         <v>691</v>
       </c>
-      <c r="H145" s="105"/>
-      <c r="I145" s="105"/>
-    </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="52"/>
-      <c r="C146" t="s">
-        <v>690</v>
-      </c>
-      <c r="G146" s="105"/>
-      <c r="H146" s="105"/>
-      <c r="I146" s="105"/>
-    </row>
-    <row r="147" spans="2:9">
-      <c r="B147" s="52"/>
-    </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="52"/>
-    </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="52"/>
-    </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="52"/>
-    </row>
-    <row r="151" spans="2:9">
-      <c r="B151" s="52"/>
-    </row>
-    <row r="152" spans="2:9">
-      <c r="B152" s="52"/>
-    </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="52"/>
-    </row>
-    <row r="154" spans="2:9">
-      <c r="B154" s="52"/>
-    </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="52"/>
-    </row>
-    <row r="156" spans="2:9">
-      <c r="B156" s="52"/>
-    </row>
-    <row r="157" spans="2:9">
-      <c r="B157" s="52"/>
-    </row>
-    <row r="158" spans="2:9">
-      <c r="B158" s="52"/>
-    </row>
-    <row r="159" spans="2:9">
-      <c r="B159" s="52"/>
-    </row>
-    <row r="160" spans="2:9">
-      <c r="B160" s="52"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="52"/>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="52"/>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="52"/>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="52"/>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="52"/>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="52"/>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="52"/>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="52"/>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="52"/>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="52"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="52"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="52"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="52"/>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="52"/>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="52"/>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="52"/>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="52"/>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="52"/>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="52"/>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="52"/>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="52"/>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="52"/>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="52"/>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="52"/>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="52"/>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="52"/>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="52"/>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="52"/>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="52"/>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="52"/>
+      <c r="K148" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="B149" s="55"/>
+      <c r="C149" t="s">
+        <v>697</v>
+      </c>
+      <c r="F149" t="s">
+        <v>696</v>
+      </c>
+      <c r="I149" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="B150" s="55"/>
+      <c r="C150" s="68" t="s">
+        <v>699</v>
+      </c>
+      <c r="D150" s="68"/>
+      <c r="E150" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="19" thickBot="1">
+      <c r="B151" s="55"/>
+      <c r="C151" s="128" t="s">
+        <v>701</v>
+      </c>
+      <c r="D151" s="68"/>
+      <c r="E151" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="19" thickBot="1">
+      <c r="B152" s="134" t="s">
+        <v>676</v>
+      </c>
+      <c r="C152" s="116" t="s">
+        <v>703</v>
+      </c>
+      <c r="D152" s="117"/>
+      <c r="E152" s="117"/>
+      <c r="F152" s="117" t="s">
+        <v>706</v>
+      </c>
+      <c r="G152" s="117"/>
+      <c r="H152" s="117"/>
+      <c r="I152" s="129" t="s">
+        <v>713</v>
+      </c>
+      <c r="J152" s="130"/>
+      <c r="K152" s="131"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="B153" s="22"/>
+      <c r="C153" s="119" t="s">
+        <v>704</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="122"/>
+      <c r="J153" s="122"/>
+      <c r="K153" s="123"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="B154" s="22"/>
+      <c r="C154" s="119" t="s">
+        <v>708</v>
+      </c>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="22"/>
+      <c r="J154" s="22"/>
+      <c r="K154" s="120"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="B155" s="22"/>
+      <c r="C155" s="132" t="s">
+        <v>710</v>
+      </c>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="122" t="s">
+        <v>712</v>
+      </c>
+      <c r="G155" s="122"/>
+      <c r="H155" s="122"/>
+      <c r="I155" s="122"/>
+      <c r="J155" s="22"/>
+      <c r="K155" s="120"/>
+    </row>
+    <row r="156" spans="1:11" ht="19" thickBot="1">
+      <c r="B156" s="22"/>
+      <c r="C156" s="124" t="s">
+        <v>711</v>
+      </c>
+      <c r="D156" s="125"/>
+      <c r="E156" s="125"/>
+      <c r="F156" s="126"/>
+      <c r="G156" s="126"/>
+      <c r="H156" s="126"/>
+      <c r="I156" s="126"/>
+      <c r="J156" s="125"/>
+      <c r="K156" s="133"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="136" t="s">
+        <v>716</v>
+      </c>
+      <c r="B157" s="55"/>
+      <c r="C157" s="135" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="136" t="s">
+        <v>718</v>
+      </c>
+      <c r="B158" s="55"/>
+      <c r="C158" s="135" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="B159" s="55"/>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
+        <v>722</v>
+      </c>
+      <c r="B160" s="55"/>
+      <c r="C160" s="114" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="B161" s="55" t="s">
+        <v>724</v>
+      </c>
+      <c r="C161" t="s">
+        <v>725</v>
+      </c>
+      <c r="E161" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="B162" s="55" t="s">
+        <v>727</v>
+      </c>
+      <c r="C162" t="s">
+        <v>728</v>
+      </c>
+      <c r="G162" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="B163" s="55"/>
+      <c r="C163" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="B164" s="55"/>
+      <c r="C164" t="s">
+        <v>731</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F164" t="s">
+        <v>732</v>
+      </c>
+      <c r="I164" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="146" t="s">
+        <v>733</v>
+      </c>
+      <c r="B165" s="84"/>
+      <c r="C165" s="143" t="s">
+        <v>734</v>
+      </c>
+      <c r="D165" s="144" t="s">
+        <v>727</v>
+      </c>
+      <c r="E165" s="145" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="B166" s="22"/>
+      <c r="C166" s="137" t="s">
+        <v>267</v>
+      </c>
+      <c r="D166" s="141" t="s">
+        <v>735</v>
+      </c>
+      <c r="E166" s="138" t="s">
+        <v>505</v>
+      </c>
+      <c r="G166" s="147" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="B167" s="22"/>
+      <c r="C167" s="137" t="s">
+        <v>662</v>
+      </c>
+      <c r="D167" s="141" t="s">
+        <v>736</v>
+      </c>
+      <c r="E167" s="138" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="B168" s="22"/>
+      <c r="C168" s="139" t="s">
+        <v>803</v>
+      </c>
+      <c r="D168" s="142" t="s">
+        <v>737</v>
+      </c>
+      <c r="E168" s="140" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>722</v>
+      </c>
+      <c r="B169" s="55" t="s">
+        <v>743</v>
+      </c>
+      <c r="C169" s="147" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="B170" s="55" t="s">
+        <v>745</v>
+      </c>
+      <c r="C170" s="31" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="B171" s="55" t="s">
+        <v>747</v>
+      </c>
+      <c r="C171" s="31" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="100" t="s">
+        <v>749</v>
+      </c>
+      <c r="B172" s="101"/>
+      <c r="C172" s="147" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="B173" s="63" t="s">
+        <v>751</v>
+      </c>
+      <c r="C173" s="148" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="B174" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="C174" s="148" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="B175" s="55" t="s">
+        <v>754</v>
+      </c>
+      <c r="C175" s="148" t="s">
+        <v>755</v>
+      </c>
+      <c r="E175" t="s">
+        <v>756</v>
+      </c>
+      <c r="F175" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="B176" s="55"/>
+      <c r="C176" s="148" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="B177" s="73" t="s">
+        <v>760</v>
+      </c>
+      <c r="C177" s="148" t="s">
+        <v>761</v>
+      </c>
+      <c r="E177" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="B178" s="55" t="s">
+        <v>762</v>
+      </c>
+      <c r="C178" s="148" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="B179" s="55" t="s">
+        <v>765</v>
+      </c>
+      <c r="C179" s="149" t="s">
+        <v>766</v>
+      </c>
+      <c r="D179" s="68"/>
+      <c r="E179" s="68"/>
+      <c r="F179" s="68"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="69"/>
+      <c r="I179" t="s">
+        <v>767</v>
+      </c>
+      <c r="J179" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="B180" s="55" t="s">
+        <v>769</v>
+      </c>
+      <c r="C180" s="148" t="s">
+        <v>770</v>
+      </c>
+      <c r="F180" t="s">
+        <v>771</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="I180" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="B181" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="C181" s="148" t="s">
+        <v>774</v>
+      </c>
+      <c r="I181" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="B182" s="73" t="s">
+        <v>775</v>
+      </c>
+      <c r="C182" s="148" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="B183" s="55"/>
+      <c r="C183" s="148" t="s">
+        <v>778</v>
+      </c>
+      <c r="F183" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="B184" s="55"/>
+      <c r="F184" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="150" t="s">
+        <v>783</v>
+      </c>
+      <c r="B185" s="151"/>
+      <c r="C185" s="148" t="s">
+        <v>784</v>
+      </c>
+      <c r="F185" s="39" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="B186" s="55" t="s">
+        <v>785</v>
+      </c>
+      <c r="C186" s="148" t="s">
+        <v>786</v>
+      </c>
+      <c r="E186" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="B187" s="55"/>
+      <c r="C187" s="148" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="B188" s="55" t="s">
+        <v>789</v>
+      </c>
+      <c r="C188" s="148" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="55" t="s">
+        <v>792</v>
+      </c>
+      <c r="B189" s="111"/>
+      <c r="C189" s="148" t="s">
+        <v>793</v>
+      </c>
+      <c r="H189" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="62" t="s">
+        <v>795</v>
+      </c>
+      <c r="B190" s="152"/>
+      <c r="C190" s="147" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="B191" s="107"/>
+      <c r="C191" s="147" t="s">
+        <v>797</v>
+      </c>
+      <c r="H191" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="B192" s="107"/>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="107"/>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="107"/>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="107"/>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="107"/>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="107"/>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="107"/>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="107"/>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="107"/>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="107"/>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="107"/>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="107"/>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="107"/>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A190:B190"/>
     <mergeCell ref="G145:I146"/>
+    <mergeCell ref="A135:A145"/>
+    <mergeCell ref="F155:I156"/>
+    <mergeCell ref="I152:K153"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A66:B66"/>
@@ -9534,9 +11834,533 @@
     <hyperlink ref="J1" r:id="rId6" xr:uid="{D53A0400-59A8-9E4F-A4FD-EA7466A086F4}"/>
     <hyperlink ref="K1" r:id="rId7" xr:uid="{7383AC3C-50B6-AA44-85E3-CDFF5CE8D1E0}"/>
     <hyperlink ref="L1" r:id="rId8" xr:uid="{55E8F527-D0A9-6444-A274-3DD85EAFCEC6}"/>
+    <hyperlink ref="B2" r:id="rId9" xr:uid="{349578FE-4911-2643-8E4D-489E4F065559}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{EF0E7BF1-7DEB-F14B-A0FA-84694C0D7550}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AB3605-F8D2-DD4A-948D-12835DCCFAC9}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="67.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="33" thickBot="1">
+      <c r="A1" s="158" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1" s="159" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1" s="159" t="s">
+        <v>826</v>
+      </c>
+      <c r="D1" s="161" t="s">
+        <v>837</v>
+      </c>
+      <c r="E1" s="159" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1" s="159" t="s">
+        <v>819</v>
+      </c>
+      <c r="G1" s="167" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="169" t="s">
+        <v>824</v>
+      </c>
+      <c r="I1" s="170" t="s">
+        <v>818</v>
+      </c>
+      <c r="J1" s="159" t="s">
+        <v>806</v>
+      </c>
+      <c r="K1" s="159" t="s">
+        <v>807</v>
+      </c>
+      <c r="L1" s="176" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="164" customHeight="1">
+      <c r="A2" s="157"/>
+      <c r="B2" s="157" t="s">
+        <v>822</v>
+      </c>
+      <c r="C2" s="157" t="s">
+        <v>822</v>
+      </c>
+      <c r="D2" s="157" t="s">
+        <v>822</v>
+      </c>
+      <c r="E2" s="157" t="s">
+        <v>822</v>
+      </c>
+      <c r="F2" s="153">
+        <v>10</v>
+      </c>
+      <c r="G2" s="154" t="s">
+        <v>830</v>
+      </c>
+      <c r="H2" s="168" t="s">
+        <v>853</v>
+      </c>
+      <c r="I2" s="171" t="s">
+        <v>854</v>
+      </c>
+      <c r="J2" s="160" t="s">
+        <v>869</v>
+      </c>
+      <c r="K2" s="160" t="s">
+        <v>863</v>
+      </c>
+      <c r="L2" s="160" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="212" customHeight="1">
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157" t="s">
+        <v>828</v>
+      </c>
+      <c r="D3" s="157" t="s">
+        <v>828</v>
+      </c>
+      <c r="E3" s="157" t="s">
+        <v>828</v>
+      </c>
+      <c r="F3" s="153">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="H3" s="168" t="s">
+        <v>855</v>
+      </c>
+      <c r="I3" s="171" t="s">
+        <v>856</v>
+      </c>
+      <c r="J3" s="160" t="s">
+        <v>868</v>
+      </c>
+      <c r="K3" s="160" t="s">
+        <v>864</v>
+      </c>
+      <c r="L3" s="160" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="161" customHeight="1">
+      <c r="A4" s="157" t="s">
+        <v>813</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>813</v>
+      </c>
+      <c r="C4" s="157" t="s">
+        <v>813</v>
+      </c>
+      <c r="D4" s="157" t="s">
+        <v>813</v>
+      </c>
+      <c r="E4" s="157" t="s">
+        <v>813</v>
+      </c>
+      <c r="F4" s="153" t="s">
+        <v>821</v>
+      </c>
+      <c r="G4" s="154" t="s">
+        <v>833</v>
+      </c>
+      <c r="H4" s="168" t="s">
+        <v>857</v>
+      </c>
+      <c r="I4" s="171" t="s">
+        <v>858</v>
+      </c>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="160" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="86" customHeight="1">
+      <c r="A5" s="157" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="163" t="s">
+        <v>847</v>
+      </c>
+      <c r="F5" s="153"/>
+      <c r="G5" s="154" t="s">
+        <v>815</v>
+      </c>
+      <c r="H5" s="168" t="s">
+        <v>859</v>
+      </c>
+      <c r="I5" s="171" t="s">
+        <v>860</v>
+      </c>
+      <c r="J5" s="177" t="s">
+        <v>870</v>
+      </c>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+    </row>
+    <row r="6" spans="1:12" ht="57">
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157" t="s">
+        <v>831</v>
+      </c>
+      <c r="D6" s="157" t="s">
+        <v>831</v>
+      </c>
+      <c r="E6" s="157" t="s">
+        <v>831</v>
+      </c>
+      <c r="F6" s="153">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="H6" s="172" t="s">
+        <v>861</v>
+      </c>
+      <c r="I6" s="173" t="s">
+        <v>862</v>
+      </c>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+    </row>
+    <row r="7" spans="1:12" ht="174" customHeight="1">
+      <c r="A7" s="155"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="157" t="s">
+        <v>834</v>
+      </c>
+      <c r="E7" s="157" t="s">
+        <v>834</v>
+      </c>
+      <c r="F7" s="153">
+        <v>1</v>
+      </c>
+      <c r="G7" s="171" t="s">
+        <v>840</v>
+      </c>
+      <c r="H7" s="177" t="s">
+        <v>871</v>
+      </c>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+    </row>
+    <row r="8" spans="1:12" ht="38">
+      <c r="A8" s="155"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="157" t="s">
+        <v>835</v>
+      </c>
+      <c r="E8" s="157" t="s">
+        <v>835</v>
+      </c>
+      <c r="F8" s="153">
+        <v>0</v>
+      </c>
+      <c r="G8" s="171" t="s">
+        <v>839</v>
+      </c>
+      <c r="H8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+    </row>
+    <row r="9" spans="1:12" ht="21">
+      <c r="A9" s="155"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="164" t="s">
+        <v>841</v>
+      </c>
+      <c r="E9" s="164" t="s">
+        <v>841</v>
+      </c>
+      <c r="F9" s="153"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+    </row>
+    <row r="10" spans="1:12" ht="21">
+      <c r="A10" s="155"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156" t="s">
+        <v>848</v>
+      </c>
+      <c r="F10" s="153"/>
+      <c r="G10" s="171" t="s">
+        <v>849</v>
+      </c>
+      <c r="H10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+    </row>
+    <row r="11" spans="1:12" ht="21">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="162" t="s">
+        <v>852</v>
+      </c>
+      <c r="E11" s="162" t="s">
+        <v>852</v>
+      </c>
+      <c r="F11" s="153"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+    </row>
+    <row r="12" spans="1:12" ht="96" customHeight="1">
+      <c r="A12" s="157" t="s">
+        <v>836</v>
+      </c>
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="160" t="s">
+        <v>836</v>
+      </c>
+      <c r="E12" s="160" t="s">
+        <v>836</v>
+      </c>
+      <c r="F12" s="153">
+        <v>2</v>
+      </c>
+      <c r="G12" s="174" t="s">
+        <v>820</v>
+      </c>
+      <c r="H12" s="155"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+    </row>
+    <row r="13" spans="1:12" ht="152">
+      <c r="A13" s="157" t="s">
+        <v>812</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>812</v>
+      </c>
+      <c r="C13" s="157" t="s">
+        <v>812</v>
+      </c>
+      <c r="D13" s="157" t="s">
+        <v>812</v>
+      </c>
+      <c r="E13" s="157"/>
+      <c r="F13" s="153" t="s">
+        <v>823</v>
+      </c>
+      <c r="G13" s="174" t="s">
+        <v>816</v>
+      </c>
+      <c r="H13" s="155"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="157"/>
+    </row>
+    <row r="14" spans="1:12" ht="21">
+      <c r="A14" s="157" t="s">
+        <v>814</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="174" t="s">
+        <v>817</v>
+      </c>
+      <c r="H14" s="155"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="157"/>
+    </row>
+    <row r="15" spans="1:12" ht="21">
+      <c r="A15" s="157"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157" t="s">
+        <v>825</v>
+      </c>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="153" t="s">
+        <v>789</v>
+      </c>
+      <c r="G15" s="171" t="s">
+        <v>827</v>
+      </c>
+      <c r="H15" s="155"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="157"/>
+    </row>
+    <row r="16" spans="1:12" ht="61" customHeight="1">
+      <c r="A16" s="155"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="162" t="s">
+        <v>842</v>
+      </c>
+      <c r="E16" s="162" t="s">
+        <v>842</v>
+      </c>
+      <c r="F16" s="153"/>
+      <c r="G16" s="171" t="s">
+        <v>846</v>
+      </c>
+      <c r="H16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+    </row>
+    <row r="17" spans="1:12" ht="21">
+      <c r="A17" s="155"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="162" t="s">
+        <v>843</v>
+      </c>
+      <c r="E17" s="162" t="s">
+        <v>843</v>
+      </c>
+      <c r="F17" s="153"/>
+      <c r="G17" s="171" t="s">
+        <v>844</v>
+      </c>
+      <c r="H17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+    </row>
+    <row r="18" spans="1:12" ht="21">
+      <c r="A18" s="155"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="157" t="s">
+        <v>845</v>
+      </c>
+      <c r="E18" s="157" t="s">
+        <v>845</v>
+      </c>
+      <c r="F18" s="153"/>
+      <c r="G18" s="175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+    </row>
+    <row r="19" spans="1:12" ht="21">
+      <c r="A19" s="155"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="162" t="s">
+        <v>850</v>
+      </c>
+      <c r="F19" s="153"/>
+      <c r="G19" s="173" t="s">
+        <v>851</v>
+      </c>
+      <c r="H19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+    </row>
+    <row r="20" spans="1:12" ht="76">
+      <c r="A20" s="165" t="s">
+        <v>809</v>
+      </c>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="155"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+    </row>
+    <row r="21" spans="1:12" ht="95">
+      <c r="A21" s="153" t="s">
+        <v>810</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L1" r:id="rId1" xr:uid="{E3B4DCCC-28C0-204D-B0AA-42F7669382D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>